--- a/data-raw/Cell_MutagenSig-master/Figure3_results/Fig3B.xlsx
+++ b/data-raw/Cell_MutagenSig-master/Figure3_results/Fig3B.xlsx
@@ -2223,19 +2223,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G16" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.54296875" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31.08984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30.453125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
@@ -2249,28 +2252,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
@@ -2299,196 +2302,196 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
+        <v>245</v>
+      </c>
+      <c r="B2" t="s">
+        <v>246</v>
       </c>
       <c r="C2">
-        <v>287</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>7.8102496759066504</v>
+        <v>196.5</v>
       </c>
       <c r="E2">
-        <v>4.5092497528228899</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
+        <v>13.4350288425444</v>
+      </c>
+      <c r="F2">
+        <v>9.5</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>246</v>
       </c>
       <c r="H2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>247</v>
       </c>
       <c r="L2">
-        <v>4.9399999999999999E-2</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>2.8344730952614801</v>
+        <v>2.4740453348755098</v>
       </c>
       <c r="O2">
-        <v>0.25318087534161199</v>
+        <v>6.1245157814297103E-2</v>
       </c>
       <c r="P2">
-        <v>0.33736627545171199</v>
+        <v>6.1245157814297103E-2</v>
       </c>
       <c r="Q2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
+        <v>296</v>
+      </c>
+      <c r="B3" t="s">
+        <v>299</v>
       </c>
       <c r="C3">
-        <v>231</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>16.9705627484771</v>
+        <v>379.33333333333297</v>
       </c>
       <c r="E3">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
+        <v>31.4695620136877</v>
+      </c>
+      <c r="F3">
+        <v>18.168960099882199</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
       <c r="H3" t="s">
+        <v>298</v>
+      </c>
+      <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>300</v>
       </c>
       <c r="L3">
-        <v>0.68410000000000004</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.87313665744791</v>
+        <v>5.8115079597476802</v>
       </c>
       <c r="O3">
-        <v>8.9852180222578806E-2</v>
+        <v>0.63066717450195198</v>
       </c>
       <c r="P3">
-        <v>8.9852180222578806E-2</v>
+        <v>0.81917422206347601</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
+        <v>149</v>
+      </c>
+      <c r="B4" t="s">
+        <v>152</v>
       </c>
       <c r="C4">
-        <v>224</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>22.627416997969501</v>
+        <v>551.66666666666697</v>
       </c>
       <c r="E4">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
+        <v>23.629078131263</v>
+      </c>
+      <c r="F4">
+        <v>13.6422546197874</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="L4">
-        <v>0.77600000000000002</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>2.3342250581286299</v>
+        <v>6.5146526771502202</v>
       </c>
       <c r="O4">
-        <v>0.247952405917888</v>
+        <v>0.77920034926350501</v>
       </c>
       <c r="P4">
-        <v>0.247952405917888</v>
+        <v>0.80727316112217296</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
+        <v>451</v>
+      </c>
+      <c r="B5" t="s">
+        <v>152</v>
       </c>
       <c r="C5">
-        <v>552.33333333333303</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>82.561088494116504</v>
+        <v>1343.6666666666699</v>
       </c>
       <c r="E5">
-        <v>47.6666666666667</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
+        <v>288.390938368967</v>
+      </c>
+      <c r="F5">
+        <v>166.502585899172</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="H5" t="s">
+        <v>452</v>
+      </c>
+      <c r="I5" t="s">
         <v>20</v>
       </c>
-      <c r="I5" t="s">
-        <v>34</v>
-      </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>453</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -2497,13 +2500,13 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>6.2847108581162798</v>
+        <v>8.9613911997829803</v>
       </c>
       <c r="O5">
-        <v>0.94624782795815399</v>
+        <v>0.95253650626931197</v>
       </c>
       <c r="P5">
-        <v>0.97145072567202995</v>
+        <v>0.96252940647142005</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2511,158 +2514,158 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
+        <v>210</v>
+      </c>
+      <c r="B6" t="s">
+        <v>211</v>
       </c>
       <c r="C6">
-        <v>3902</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>261.16852796613898</v>
+        <v>273</v>
       </c>
       <c r="E6">
-        <v>150.78571992510899</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.15959999999999999</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N6">
-        <v>37.090979057399402</v>
+        <v>2.1936436479183699</v>
       </c>
       <c r="O6">
-        <v>0.99220669815614504</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.99493486973493495</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
+        <v>441</v>
+      </c>
+      <c r="B7" t="s">
+        <v>211</v>
       </c>
       <c r="C7">
-        <v>317.33333333333297</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>18.230011885167102</v>
+        <v>236</v>
       </c>
       <c r="E7">
-        <v>10.525102269231301</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
+        <v>28.284271247461898</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>211</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>442</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>443</v>
       </c>
       <c r="L7">
-        <v>4.3E-3</v>
+        <v>0.6109</v>
       </c>
       <c r="M7">
-        <v>0.01</v>
+        <v>0.78</v>
       </c>
       <c r="N7">
-        <v>2.22790003570449</v>
+        <v>2.26215923018666</v>
       </c>
       <c r="O7">
-        <v>0.121912705778823</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.26096984074538099</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>272.5</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>21.920310216783001</v>
+        <v>231</v>
       </c>
       <c r="E8">
-        <v>15.5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>50</v>
+        <v>16.9705627484771</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
         <v>20</v>
       </c>
-      <c r="I8" t="s">
-        <v>50</v>
-      </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="L8">
-        <v>0.16789999999999999</v>
+        <v>0.68410000000000004</v>
       </c>
       <c r="M8">
-        <v>0.31</v>
+        <v>0.82</v>
       </c>
       <c r="N8">
-        <v>2.30212452786414</v>
+        <v>1.87313665744791</v>
       </c>
       <c r="O8">
-        <v>0.228889387155675</v>
+        <v>8.9852180222578806E-2</v>
       </c>
       <c r="P8">
-        <v>0.228889387155675</v>
+        <v>8.9852180222578806E-2</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2670,105 +2673,105 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
       </c>
       <c r="C9">
-        <v>312.66666666666703</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>51.520222566807</v>
+        <v>232</v>
       </c>
       <c r="E9">
-        <v>29.7452143676555</v>
-      </c>
-      <c r="F9" t="s">
-        <v>54</v>
+        <v>9.8994949366116707</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L9">
-        <v>6.8999999999999999E-3</v>
+        <v>0.67020000000000002</v>
       </c>
       <c r="M9">
-        <v>0.01</v>
+        <v>0.82</v>
       </c>
       <c r="N9">
-        <v>2.4623480406503502</v>
+        <v>1.77173214305634</v>
       </c>
       <c r="O9">
-        <v>6.9894979619948699E-2</v>
+        <v>1.01595795406131E-2</v>
       </c>
       <c r="P9">
-        <v>0.63603003828336602</v>
+        <v>1.01595795406131E-2</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
       </c>
       <c r="C10">
-        <v>232</v>
+        <v>2</v>
       </c>
       <c r="D10">
+        <v>240</v>
+      </c>
+      <c r="E10">
         <v>9.8994949366116707</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>7</v>
       </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" t="s">
         <v>31</v>
-      </c>
-      <c r="I10" t="s">
-        <v>24</v>
       </c>
       <c r="J10" t="s">
         <v>26</v>
       </c>
       <c r="K10" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="L10">
-        <v>0.67020000000000002</v>
+        <v>0.55020000000000002</v>
       </c>
       <c r="M10">
-        <v>0.82</v>
+        <v>0.72</v>
       </c>
       <c r="N10">
-        <v>1.77173214305634</v>
+        <v>1.17172934281495</v>
       </c>
       <c r="O10">
-        <v>1.01595795406131E-2</v>
+        <v>6.51022621261486E-2</v>
       </c>
       <c r="P10">
-        <v>1.01595795406131E-2</v>
+        <v>6.51022621261486E-2</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -2776,211 +2779,211 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
+        <v>90</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
       </c>
       <c r="C11">
-        <v>230</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>24.0416305603426</v>
+        <v>216.333333333333</v>
       </c>
       <c r="E11">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>62</v>
+        <v>24.826061575153901</v>
+      </c>
+      <c r="F11">
+        <v>14.3333333333333</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="J11" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="K11" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="L11">
-        <v>0.70320000000000005</v>
+        <v>0.91490000000000005</v>
       </c>
       <c r="M11">
-        <v>0.82</v>
+        <v>0.96</v>
       </c>
       <c r="N11">
-        <v>1.59650928763273</v>
+        <v>1.41071911952436</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.6071584479312601E-2</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
+        <v>111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
       </c>
       <c r="C12">
-        <v>245.5</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>92.630988335437706</v>
+        <v>254.333333333333</v>
       </c>
       <c r="E12">
-        <v>65.5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>68</v>
+        <v>9.0737717258774708</v>
+      </c>
+      <c r="F12">
+        <v>5.2387445485005699</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" t="s">
         <v>20</v>
       </c>
-      <c r="I12" t="s">
-        <v>68</v>
-      </c>
       <c r="J12" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K12" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="L12">
-        <v>0.44719999999999999</v>
+        <v>0.33410000000000001</v>
       </c>
       <c r="M12">
-        <v>0.63</v>
+        <v>0.53</v>
       </c>
       <c r="N12">
-        <v>1.4785038212095201</v>
+        <v>1.35395966829817</v>
       </c>
       <c r="O12">
-        <v>0.117274464305705</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.117274464305705</v>
+        <v>0.27965965257536601</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
+        <v>155</v>
+      </c>
+      <c r="B13" t="s">
+        <v>156</v>
       </c>
       <c r="C13">
-        <v>541.33333333333303</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>62.147673595504202</v>
+        <v>268.5</v>
       </c>
       <c r="E13">
-        <v>35.880976079873399</v>
-      </c>
-      <c r="F13" t="s">
-        <v>72</v>
+        <v>44.547727214752499</v>
+      </c>
+      <c r="F13">
+        <v>31.5</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="H13" t="s">
+        <v>157</v>
+      </c>
+      <c r="I13" t="s">
         <v>20</v>
       </c>
-      <c r="I13" t="s">
-        <v>72</v>
-      </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="K13" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.18890000000000001</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="N13">
-        <v>12.950579683072499</v>
+        <v>1.1791507125418701</v>
       </c>
       <c r="O13">
-        <v>0.89660198775033995</v>
+        <v>4.3801232849772199E-2</v>
       </c>
       <c r="P13">
-        <v>0.94681045213180304</v>
+        <v>4.3801232849772199E-2</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
+        <v>457</v>
+      </c>
+      <c r="B14" t="s">
+        <v>156</v>
       </c>
       <c r="C14">
-        <v>1713.6666666666699</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>179.525299981182</v>
+        <v>257.33333333333297</v>
       </c>
       <c r="E14">
-        <v>103.648980270484</v>
-      </c>
-      <c r="F14" t="s">
-        <v>76</v>
+        <v>7.0945988845975902</v>
+      </c>
+      <c r="F14">
+        <v>4.0960685758148401</v>
       </c>
       <c r="G14" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>264</v>
       </c>
       <c r="I14" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="K14" t="s">
-        <v>79</v>
+        <v>458</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.28970000000000001</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="N14">
-        <v>9.4955334710799395</v>
+        <v>0.97246909599720499</v>
       </c>
       <c r="O14">
-        <v>0.76247951454207596</v>
+        <v>6.0844939513061802E-2</v>
       </c>
       <c r="P14">
-        <v>0.94042493449587095</v>
+        <v>0.37808936523548198</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -2988,105 +2991,105 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
+        <v>413</v>
+      </c>
+      <c r="B15" t="s">
+        <v>414</v>
       </c>
       <c r="C15">
-        <v>522.66666666666697</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>152.76234265463901</v>
+        <v>227.5</v>
       </c>
       <c r="E15">
-        <v>88.197379653693702</v>
-      </c>
-      <c r="F15" t="s">
-        <v>81</v>
+        <v>23.3345237791561</v>
+      </c>
+      <c r="F15">
+        <v>16.5</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>414</v>
       </c>
       <c r="H15" t="s">
-        <v>20</v>
+        <v>415</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="J15" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="K15" t="s">
-        <v>82</v>
+        <v>416</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.74419999999999997</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="N15">
-        <v>4.0094516098985</v>
+        <v>2.1075420620569898</v>
       </c>
       <c r="O15">
-        <v>0.61454472630161106</v>
+        <v>0.115046087635941</v>
       </c>
       <c r="P15">
-        <v>0.85972195842652799</v>
+        <v>0.115046087635941</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
+        <v>291</v>
+      </c>
+      <c r="B16" t="s">
+        <v>294</v>
       </c>
       <c r="C16">
-        <v>272.66666666666703</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>35.232560697930197</v>
+        <v>495.33333333333297</v>
       </c>
       <c r="E16">
-        <v>20.341528403189798</v>
-      </c>
-      <c r="F16" t="s">
-        <v>81</v>
+        <v>47.857427149120099</v>
+      </c>
+      <c r="F16">
+        <v>27.630498447267399</v>
       </c>
       <c r="G16" t="s">
-        <v>84</v>
+        <v>292</v>
       </c>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>293</v>
       </c>
       <c r="I16" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J16" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="K16" t="s">
-        <v>85</v>
+        <v>295</v>
       </c>
       <c r="L16">
-        <v>0.12189999999999999</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.8520073663346801</v>
+        <v>6.3133878044610698</v>
       </c>
       <c r="O16">
-        <v>0.12494963516556799</v>
+        <v>0.66329005289196596</v>
       </c>
       <c r="P16">
-        <v>0.30739525862363498</v>
+        <v>0.69650612347506302</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -3094,158 +3097,158 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
+        <v>431</v>
+      </c>
+      <c r="B17" t="s">
+        <v>294</v>
       </c>
       <c r="C17">
-        <v>240</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>9.8994949366116707</v>
+        <v>1037.3333333333301</v>
       </c>
       <c r="E17">
-        <v>7</v>
-      </c>
-      <c r="F17" t="s">
-        <v>87</v>
+        <v>298.93867821567198</v>
+      </c>
+      <c r="F17">
+        <v>172.59232633900899</v>
       </c>
       <c r="G17" t="s">
-        <v>88</v>
+        <v>292</v>
       </c>
       <c r="H17" t="s">
-        <v>31</v>
+        <v>432</v>
       </c>
       <c r="I17" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="J17" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="K17" t="s">
-        <v>89</v>
+        <v>433</v>
       </c>
       <c r="L17">
-        <v>0.55020000000000002</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.17172934281495</v>
+        <v>5.73427001561212</v>
       </c>
       <c r="O17">
-        <v>6.51022621261486E-2</v>
+        <v>0.88431390344654304</v>
       </c>
       <c r="P17">
-        <v>6.51022621261486E-2</v>
+        <v>0.94413338138611003</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
+        <v>126</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
       </c>
       <c r="C18">
-        <v>216.333333333333</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>24.826061575153901</v>
+        <v>388.5</v>
       </c>
       <c r="E18">
-        <v>14.3333333333333</v>
-      </c>
-      <c r="F18" t="s">
-        <v>87</v>
+        <v>65.760930650348897</v>
+      </c>
+      <c r="F18">
+        <v>46.5</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="H18" t="s">
+        <v>128</v>
+      </c>
+      <c r="I18" t="s">
         <v>31</v>
-      </c>
-      <c r="I18" t="s">
-        <v>87</v>
       </c>
       <c r="J18" t="s">
         <v>26</v>
       </c>
       <c r="K18" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="L18">
-        <v>0.91490000000000005</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.41071911952436</v>
+        <v>4.4144707246924897</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.43756153785440899</v>
       </c>
       <c r="P18">
-        <v>7.6071584479312601E-2</v>
+        <v>0.43756153785440899</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
+        <v>263</v>
+      </c>
+      <c r="B19" t="s">
+        <v>129</v>
       </c>
       <c r="C19">
-        <v>244.5</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>17.677669529663699</v>
+        <v>199.5</v>
       </c>
       <c r="E19">
-        <v>12.5</v>
-      </c>
-      <c r="F19" t="s">
-        <v>93</v>
+        <v>30.405591591021501</v>
+      </c>
+      <c r="F19">
+        <v>21.5</v>
       </c>
       <c r="G19" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="H19" t="s">
-        <v>20</v>
+        <v>264</v>
       </c>
       <c r="I19" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="J19" t="s">
         <v>26</v>
       </c>
       <c r="K19" t="s">
-        <v>96</v>
+        <v>265</v>
       </c>
       <c r="L19">
-        <v>0.4904</v>
+        <v>0.9607</v>
       </c>
       <c r="M19">
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>2.0272640052517099</v>
+        <v>1.97487914683977</v>
       </c>
       <c r="O19">
-        <v>9.80535505626297E-3</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>9.80535505626297E-3</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -3253,52 +3256,52 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
+        <v>314</v>
+      </c>
+      <c r="B20" t="s">
+        <v>315</v>
       </c>
       <c r="C20">
-        <v>249.333333333333</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>8.3864970836060806</v>
+        <v>1402</v>
       </c>
       <c r="E20">
-        <v>4.8419463487779799</v>
-      </c>
-      <c r="F20" t="s">
-        <v>93</v>
+        <v>102.50365847129601</v>
+      </c>
+      <c r="F20">
+        <v>59.180514811324002</v>
       </c>
       <c r="G20" t="s">
-        <v>98</v>
+        <v>315</v>
       </c>
       <c r="H20" t="s">
+        <v>316</v>
+      </c>
+      <c r="I20" t="s">
         <v>31</v>
       </c>
-      <c r="I20" t="s">
-        <v>95</v>
-      </c>
       <c r="J20" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="K20" t="s">
-        <v>99</v>
+        <v>317</v>
       </c>
       <c r="L20">
-        <v>0.41370000000000001</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.5107616547739899</v>
+        <v>16.822270126765599</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.97653943361999196</v>
       </c>
       <c r="P20">
-        <v>0.42281480733176502</v>
+        <v>0.97965629654942099</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -3306,105 +3309,105 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
+        <v>202</v>
+      </c>
+      <c r="B21" t="s">
+        <v>203</v>
       </c>
       <c r="C21">
-        <v>229.5</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>12.0208152801713</v>
+        <v>558.66666666666697</v>
       </c>
       <c r="E21">
-        <v>8.5</v>
-      </c>
-      <c r="F21" t="s">
-        <v>101</v>
+        <v>142.01877810111401</v>
+      </c>
+      <c r="F21">
+        <v>81.994579766659598</v>
       </c>
       <c r="G21" t="s">
-        <v>102</v>
+        <v>203</v>
       </c>
       <c r="H21" t="s">
-        <v>20</v>
+        <v>204</v>
       </c>
       <c r="I21" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="J21" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="K21" t="s">
-        <v>105</v>
+        <v>205</v>
       </c>
       <c r="L21">
-        <v>0.70320000000000005</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.5580259859883601</v>
+        <v>4.11268217261728</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.58984841711096703</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.857166626066868</v>
       </c>
       <c r="Q21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
+        <v>253</v>
+      </c>
+      <c r="B22" t="s">
+        <v>203</v>
       </c>
       <c r="C22">
-        <v>314.33333333333297</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>15.0111069989303</v>
+        <v>1438.6666666666699</v>
       </c>
       <c r="E22">
-        <v>8.6666666666666696</v>
-      </c>
-      <c r="F22" t="s">
-        <v>107</v>
+        <v>593.15793287566601</v>
+      </c>
+      <c r="F22">
+        <v>342.459892217728</v>
       </c>
       <c r="G22" t="s">
-        <v>108</v>
+        <v>203</v>
       </c>
       <c r="H22" t="s">
+        <v>254</v>
+      </c>
+      <c r="I22" t="s">
         <v>20</v>
       </c>
-      <c r="I22" t="s">
-        <v>109</v>
-      </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="K22" t="s">
-        <v>110</v>
+        <v>255</v>
       </c>
       <c r="L22">
-        <v>6.4000000000000003E-3</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>3.2731174659857798</v>
+        <v>7.6273877657913998</v>
       </c>
       <c r="O22">
-        <v>0.317530835560763</v>
+        <v>0.94207286576444704</v>
       </c>
       <c r="P22">
-        <v>0.36270872977087298</v>
+        <v>0.95748625651342101</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -3412,90 +3415,90 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>111</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
+        <v>446</v>
+      </c>
+      <c r="B23" t="s">
+        <v>203</v>
       </c>
       <c r="C23">
-        <v>254.333333333333</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>9.0737717258774708</v>
+        <v>2341.5</v>
       </c>
       <c r="E23">
-        <v>5.2387445485005699</v>
-      </c>
-      <c r="F23" t="s">
-        <v>87</v>
+        <v>327.39043968937102</v>
+      </c>
+      <c r="F23">
+        <v>231.5</v>
       </c>
       <c r="G23" t="s">
-        <v>73</v>
+        <v>203</v>
       </c>
       <c r="H23" t="s">
-        <v>20</v>
+        <v>447</v>
       </c>
       <c r="I23" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="J23" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="K23" t="s">
-        <v>112</v>
+        <v>448</v>
       </c>
       <c r="L23">
-        <v>0.33410000000000001</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.35395966829817</v>
+        <v>26.606504114328501</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.98421704288609901</v>
       </c>
       <c r="P23">
-        <v>0.27965965257536601</v>
+        <v>0.98421704288609901</v>
       </c>
       <c r="Q23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>113</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
+        <v>449</v>
+      </c>
+      <c r="B24" t="s">
+        <v>203</v>
       </c>
       <c r="C24">
-        <v>619.33333333333303</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>346.92986803291097</v>
+        <v>2429</v>
       </c>
       <c r="E24">
-        <v>200.30005269872299</v>
-      </c>
-      <c r="F24" t="s">
-        <v>101</v>
+        <v>282.84271247461902</v>
+      </c>
+      <c r="F24">
+        <v>200</v>
       </c>
       <c r="G24" t="s">
-        <v>114</v>
+        <v>203</v>
       </c>
       <c r="H24" t="s">
-        <v>31</v>
+        <v>447</v>
       </c>
       <c r="I24" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="J24" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="K24" t="s">
-        <v>115</v>
+        <v>450</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -3504,66 +3507,66 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.6236179685275598</v>
+        <v>32.423182984675698</v>
       </c>
       <c r="O24">
-        <v>0.59644870894079505</v>
+        <v>0.97093087033326397</v>
       </c>
       <c r="P24">
-        <v>0.83448910057577796</v>
+        <v>0.97093087033326397</v>
       </c>
       <c r="Q24">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
+        <v>214</v>
+      </c>
+      <c r="B25" t="s">
+        <v>217</v>
       </c>
       <c r="C25">
-        <v>276.33333333333297</v>
+        <v>3</v>
       </c>
       <c r="D25">
-        <v>48.013886880082197</v>
+        <v>1138</v>
       </c>
       <c r="E25">
-        <v>27.720830515055699</v>
-      </c>
-      <c r="F25" t="s">
-        <v>54</v>
+        <v>455.143933278254</v>
+      </c>
+      <c r="F25">
+        <v>262.77747239822497</v>
       </c>
       <c r="G25" t="s">
-        <v>117</v>
+        <v>215</v>
       </c>
       <c r="H25" t="s">
-        <v>31</v>
+        <v>216</v>
       </c>
       <c r="I25" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="J25" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="K25" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="L25">
-        <v>0.10440000000000001</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>2.07600164507536</v>
+        <v>4.0796254896216402</v>
       </c>
       <c r="O25">
-        <v>0.123397352733139</v>
+        <v>0.964606685318255</v>
       </c>
       <c r="P25">
-        <v>0.23197333844468199</v>
+        <v>0.97175741887265199</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -3571,52 +3574,52 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>119</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
+        <v>331</v>
+      </c>
+      <c r="B26" t="s">
+        <v>333</v>
       </c>
       <c r="C26">
-        <v>347</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>29</v>
+        <v>333</v>
       </c>
       <c r="E26">
-        <v>16.743157806499099</v>
-      </c>
-      <c r="F26" t="s">
-        <v>120</v>
+        <v>68.198240446510098</v>
+      </c>
+      <c r="F26">
+        <v>39.374272480051403</v>
       </c>
       <c r="G26" t="s">
-        <v>121</v>
+        <v>332</v>
       </c>
       <c r="H26" t="s">
+        <v>98</v>
+      </c>
+      <c r="I26" t="s">
         <v>20</v>
-      </c>
-      <c r="I26" t="s">
-        <v>120</v>
       </c>
       <c r="J26" t="s">
         <v>104</v>
       </c>
       <c r="K26" t="s">
-        <v>122</v>
+        <v>334</v>
       </c>
       <c r="L26" s="1">
-        <v>2.0000000000000001E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>2.5255047564980702</v>
+        <v>2.7492518555540602</v>
       </c>
       <c r="O26">
-        <v>0.42783177501793102</v>
+        <v>0.105166433108648</v>
       </c>
       <c r="P26">
-        <v>0.80485994153263396</v>
+        <v>0.60542149167004</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -3624,105 +3627,105 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>123</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
       </c>
       <c r="C27">
-        <v>264.33333333333297</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>15.307950004273399</v>
+        <v>272.5</v>
       </c>
       <c r="E27">
-        <v>8.83804905570857</v>
-      </c>
-      <c r="F27" t="s">
-        <v>120</v>
+        <v>21.920310216783001</v>
+      </c>
+      <c r="F27">
+        <v>15.5</v>
       </c>
       <c r="G27" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="I27" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="J27" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="K27" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="L27">
-        <v>0.2011</v>
+        <v>0.16789999999999999</v>
       </c>
       <c r="M27">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="N27">
-        <v>1.30191238511458</v>
+        <v>2.30212452786414</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.228889387155675</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>0.228889387155675</v>
       </c>
       <c r="Q27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>126</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
+        <v>187</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
       </c>
       <c r="C28">
-        <v>388.5</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>65.760930650348897</v>
+        <v>249.5</v>
       </c>
       <c r="E28">
-        <v>46.5</v>
-      </c>
-      <c r="F28" t="s">
-        <v>127</v>
+        <v>31.819805153394601</v>
+      </c>
+      <c r="F28">
+        <v>22.5</v>
       </c>
       <c r="G28" t="s">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="H28" t="s">
-        <v>31</v>
+        <v>188</v>
       </c>
       <c r="I28" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="J28" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="K28" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>0.39350000000000002</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="N28">
-        <v>4.4144707246924897</v>
+        <v>1.39645993147069</v>
       </c>
       <c r="O28">
-        <v>0.43756153785440899</v>
+        <v>7.6438349741690004E-2</v>
       </c>
       <c r="P28">
-        <v>0.43756153785440899</v>
+        <v>7.6438349741690004E-2</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -3730,143 +3733,143 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
+        <v>328</v>
+      </c>
+      <c r="B29" t="s">
+        <v>329</v>
       </c>
       <c r="C29">
-        <v>449.66666666666703</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>118.593142016448</v>
+        <v>232.5</v>
       </c>
       <c r="E29">
-        <v>68.469782467239597</v>
-      </c>
-      <c r="F29" t="s">
-        <v>132</v>
+        <v>28.991378028648398</v>
+      </c>
+      <c r="F29">
+        <v>20.5</v>
       </c>
       <c r="G29" t="s">
-        <v>133</v>
+        <v>329</v>
       </c>
       <c r="H29" t="s">
+        <v>94</v>
+      </c>
+      <c r="I29" t="s">
         <v>20</v>
       </c>
-      <c r="I29" t="s">
-        <v>134</v>
-      </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="K29" t="s">
-        <v>135</v>
+        <v>330</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>0.67020000000000002</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="N29">
-        <v>5.5005502554421302</v>
+        <v>2.4983610673258001</v>
       </c>
       <c r="O29">
-        <v>0.81035546218174404</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>0.89894136565431304</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>136</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
+        <v>305</v>
+      </c>
+      <c r="B30" t="s">
+        <v>306</v>
       </c>
       <c r="C30">
-        <v>239</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>11.357816691600499</v>
+        <v>235</v>
       </c>
       <c r="E30">
-        <v>6.5574385243020004</v>
-      </c>
-      <c r="F30" t="s">
-        <v>137</v>
+        <v>11.3137084989848</v>
+      </c>
+      <c r="F30">
+        <v>8</v>
       </c>
       <c r="G30" t="s">
-        <v>19</v>
+        <v>306</v>
       </c>
       <c r="H30" t="s">
-        <v>20</v>
+        <v>307</v>
       </c>
       <c r="I30" t="s">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="K30" t="s">
-        <v>139</v>
+        <v>308</v>
       </c>
       <c r="L30">
-        <v>0.58989999999999998</v>
+        <v>0.63439999999999996</v>
       </c>
       <c r="M30">
-        <v>0.77</v>
+        <v>0.81</v>
       </c>
       <c r="N30">
-        <v>1.8152631178988601</v>
+        <v>2.03639959204502</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>4.9318067775633898E-2</v>
       </c>
       <c r="P30">
-        <v>0.34230268479751103</v>
+        <v>4.9318067775633898E-2</v>
       </c>
       <c r="Q30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>140</v>
-      </c>
-      <c r="B31">
-        <v>3</v>
+        <v>286</v>
+      </c>
+      <c r="B31" t="s">
+        <v>289</v>
       </c>
       <c r="C31">
-        <v>516</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>126.297268379011</v>
+        <v>359.5</v>
       </c>
       <c r="E31">
-        <v>72.917761896536604</v>
-      </c>
-      <c r="F31" t="s">
-        <v>107</v>
+        <v>190.211724139181</v>
+      </c>
+      <c r="F31">
+        <v>134.5</v>
       </c>
       <c r="G31" t="s">
-        <v>141</v>
+        <v>287</v>
       </c>
       <c r="H31" t="s">
+        <v>288</v>
+      </c>
+      <c r="I31" t="s">
         <v>31</v>
       </c>
-      <c r="I31" t="s">
-        <v>109</v>
-      </c>
       <c r="J31" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="K31" t="s">
-        <v>142</v>
+        <v>290</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3875,157 +3878,157 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>4.2662601742915198</v>
+        <v>2.7216580857388899</v>
       </c>
       <c r="O31">
-        <v>0.80970440567547697</v>
+        <v>0.24348773479056399</v>
       </c>
       <c r="P31">
-        <v>0.91035172337991299</v>
+        <v>0.24348773479056399</v>
       </c>
       <c r="Q31">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>143</v>
-      </c>
-      <c r="B32">
-        <v>3</v>
+        <v>427</v>
+      </c>
+      <c r="B32" t="s">
+        <v>428</v>
       </c>
       <c r="C32">
-        <v>1711</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>214.553023749375</v>
+        <v>248.5</v>
       </c>
       <c r="E32">
-        <v>123.87224601715</v>
-      </c>
-      <c r="F32" t="s">
-        <v>39</v>
+        <v>19.091883092036799</v>
+      </c>
+      <c r="F32">
+        <v>13.5</v>
       </c>
       <c r="G32" t="s">
-        <v>141</v>
+        <v>428</v>
       </c>
       <c r="H32" t="s">
+        <v>429</v>
+      </c>
+      <c r="I32" t="s">
         <v>20</v>
       </c>
-      <c r="I32" t="s">
-        <v>41</v>
-      </c>
       <c r="J32" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="K32" t="s">
-        <v>144</v>
+        <v>430</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>0.4239</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="N32">
-        <v>17.116457209945199</v>
+        <v>1.46733074170574</v>
       </c>
       <c r="O32">
-        <v>0.98440188275299001</v>
+        <v>7.2404891033761798E-2</v>
       </c>
       <c r="P32">
-        <v>0.991833652994208</v>
+        <v>7.2404891033761798E-2</v>
       </c>
       <c r="Q32">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>145</v>
-      </c>
-      <c r="B33">
-        <v>3</v>
+        <v>422</v>
+      </c>
+      <c r="B33" t="s">
+        <v>423</v>
       </c>
       <c r="C33">
-        <v>219.333333333333</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>12.5033328890074</v>
+        <v>371</v>
       </c>
       <c r="E33">
-        <v>7.2188026092359099</v>
-      </c>
-      <c r="F33" t="s">
-        <v>146</v>
+        <v>7.0710678118654799</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
       </c>
       <c r="G33" t="s">
-        <v>147</v>
+        <v>423</v>
       </c>
       <c r="H33" t="s">
+        <v>424</v>
+      </c>
+      <c r="I33" t="s">
         <v>20</v>
       </c>
-      <c r="I33" t="s">
-        <v>146</v>
-      </c>
       <c r="J33" t="s">
-        <v>21</v>
+        <v>425</v>
       </c>
       <c r="K33" t="s">
-        <v>148</v>
+        <v>426</v>
       </c>
       <c r="L33">
-        <v>0.89049999999999996</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>2.42274145673476</v>
+        <v>6.2412361519838004</v>
       </c>
       <c r="O33">
-        <v>0.28871340439184701</v>
+        <v>0.68156027779292505</v>
       </c>
       <c r="P33">
-        <v>0.74649308747467402</v>
+        <v>0.68156027779292505</v>
       </c>
       <c r="Q33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>149</v>
-      </c>
-      <c r="B34">
-        <v>3</v>
+        <v>197</v>
+      </c>
+      <c r="B34" t="s">
+        <v>200</v>
       </c>
       <c r="C34">
-        <v>551.66666666666697</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>23.629078131263</v>
+        <v>600.66666666666697</v>
       </c>
       <c r="E34">
-        <v>13.6422546197874</v>
-      </c>
-      <c r="F34" t="s">
-        <v>150</v>
+        <v>64.508397386180107</v>
+      </c>
+      <c r="F34">
+        <v>37.243940595902501</v>
       </c>
       <c r="G34" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="H34" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="I34" t="s">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="J34" t="s">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="K34" t="s">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -4034,13 +4037,13 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>6.5146526771502202</v>
+        <v>10.749509915649099</v>
       </c>
       <c r="O34">
-        <v>0.77920034926350501</v>
+        <v>0.81101127412644003</v>
       </c>
       <c r="P34">
-        <v>0.80727316112217296</v>
+        <v>0.89277278487233003</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -4048,355 +4051,355 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>155</v>
-      </c>
-      <c r="B35">
-        <v>2</v>
+        <v>444</v>
+      </c>
+      <c r="B35" t="s">
+        <v>200</v>
       </c>
       <c r="C35">
-        <v>268.5</v>
+        <v>3</v>
       </c>
       <c r="D35">
-        <v>44.547727214752499</v>
+        <v>765.33333333333303</v>
       </c>
       <c r="E35">
-        <v>31.5</v>
-      </c>
-      <c r="F35" t="s">
-        <v>156</v>
+        <v>65.071755265501594</v>
+      </c>
+      <c r="F35">
+        <v>37.569195419178797</v>
       </c>
       <c r="G35" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="H35" t="s">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="I35" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="J35" t="s">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="K35" t="s">
-        <v>158</v>
+        <v>445</v>
       </c>
       <c r="L35">
-        <v>0.18890000000000001</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>1.1791507125418701</v>
+        <v>10.7754055258865</v>
       </c>
       <c r="O35">
-        <v>4.3801232849772199E-2</v>
+        <v>0.87941960519777096</v>
       </c>
       <c r="P35">
-        <v>4.3801232849772199E-2</v>
+        <v>0.92145553563215898</v>
       </c>
       <c r="Q35">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>159</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
+        <v>80</v>
+      </c>
+      <c r="B36" t="s">
+        <v>81</v>
       </c>
       <c r="C36">
-        <v>229.5</v>
+        <v>3</v>
       </c>
       <c r="D36">
-        <v>44.547727214752499</v>
+        <v>522.66666666666697</v>
       </c>
       <c r="E36">
-        <v>31.5</v>
-      </c>
-      <c r="F36" t="s">
-        <v>160</v>
+        <v>152.76234265463901</v>
+      </c>
+      <c r="F36">
+        <v>88.197379653693702</v>
       </c>
       <c r="G36" t="s">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s">
+        <v>73</v>
+      </c>
+      <c r="I36" t="s">
         <v>20</v>
       </c>
-      <c r="I36" t="s">
-        <v>160</v>
-      </c>
       <c r="J36" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K36" t="s">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="L36">
-        <v>0.70320000000000005</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>1.86322054778377</v>
+        <v>4.0094516098985</v>
       </c>
       <c r="O36">
-        <v>1.61813526714806E-2</v>
+        <v>0.61454472630161106</v>
       </c>
       <c r="P36">
-        <v>1.61813526714806E-2</v>
+        <v>0.85972195842652799</v>
       </c>
       <c r="Q36">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>163</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
+        <v>81</v>
       </c>
       <c r="C37">
-        <v>230</v>
+        <v>3</v>
       </c>
       <c r="D37">
-        <v>2.8284271247461898</v>
+        <v>272.66666666666703</v>
       </c>
       <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37" t="s">
-        <v>164</v>
+        <v>35.232560697930197</v>
+      </c>
+      <c r="F37">
+        <v>20.341528403189798</v>
       </c>
       <c r="G37" t="s">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="I37" t="s">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="J37" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K37" t="s">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="L37">
-        <v>0.70320000000000005</v>
+        <v>0.12189999999999999</v>
       </c>
       <c r="M37">
-        <v>0.82</v>
+        <v>0.23</v>
       </c>
       <c r="N37">
-        <v>1.3910093936537999</v>
+        <v>1.8520073663346801</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.12494963516556799</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>0.30739525862363498</v>
       </c>
       <c r="Q37">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>168</v>
-      </c>
-      <c r="B38">
-        <v>3</v>
+        <v>231</v>
+      </c>
+      <c r="B38" t="s">
+        <v>232</v>
       </c>
       <c r="C38">
-        <v>3125</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>1047.5060859011801</v>
+        <v>211</v>
       </c>
       <c r="E38">
-        <v>604.77792067281496</v>
-      </c>
-      <c r="F38" t="s">
-        <v>169</v>
+        <v>5.6568542494923797</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
       </c>
       <c r="G38" t="s">
-        <v>151</v>
+        <v>232</v>
       </c>
       <c r="H38" t="s">
+        <v>233</v>
+      </c>
+      <c r="I38" t="s">
         <v>20</v>
       </c>
-      <c r="I38" t="s">
-        <v>170</v>
-      </c>
       <c r="J38" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="K38" t="s">
-        <v>171</v>
+        <v>234</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>0.90180000000000005</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="N38">
-        <v>8.2026739543441707</v>
+        <v>1.72679024654526</v>
       </c>
       <c r="O38">
-        <v>0.98796240888378195</v>
+        <v>0</v>
       </c>
       <c r="P38">
-        <v>0.99378318225767004</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>172</v>
-      </c>
-      <c r="B39">
-        <v>2</v>
+        <v>168</v>
+      </c>
+      <c r="B39" t="s">
+        <v>170</v>
       </c>
       <c r="C39">
-        <v>233</v>
+        <v>3</v>
       </c>
       <c r="D39">
-        <v>32.5269119345812</v>
+        <v>3125</v>
       </c>
       <c r="E39">
-        <v>23</v>
-      </c>
-      <c r="F39" t="s">
-        <v>173</v>
+        <v>1047.5060859011801</v>
+      </c>
+      <c r="F39">
+        <v>604.77792067281496</v>
       </c>
       <c r="G39" t="s">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="H39" t="s">
+        <v>151</v>
+      </c>
+      <c r="I39" t="s">
         <v>20</v>
       </c>
-      <c r="I39" t="s">
-        <v>174</v>
-      </c>
       <c r="J39" t="s">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="K39" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L39">
-        <v>0.65269999999999995</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>1.84087248301058</v>
+        <v>8.2026739543441707</v>
       </c>
       <c r="O39">
-        <v>0.41358118840699698</v>
+        <v>0.98796240888378195</v>
       </c>
       <c r="P39">
-        <v>0.41358118840699698</v>
+        <v>0.99378318225767004</v>
       </c>
       <c r="Q39">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>177</v>
-      </c>
-      <c r="B40">
-        <v>3</v>
+        <v>282</v>
+      </c>
+      <c r="B40" t="s">
+        <v>283</v>
       </c>
       <c r="C40">
-        <v>231.666666666667</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>18.230011885167102</v>
+        <v>241.5</v>
       </c>
       <c r="E40">
-        <v>10.525102269231301</v>
-      </c>
-      <c r="F40" t="s">
-        <v>178</v>
+        <v>24.7487373415292</v>
+      </c>
+      <c r="F40">
+        <v>17.5</v>
       </c>
       <c r="G40" t="s">
-        <v>179</v>
+        <v>283</v>
       </c>
       <c r="H40" t="s">
+        <v>284</v>
+      </c>
+      <c r="I40" t="s">
         <v>20</v>
       </c>
-      <c r="I40" t="s">
-        <v>180</v>
-      </c>
       <c r="J40" t="s">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="K40" t="s">
-        <v>181</v>
+        <v>285</v>
       </c>
       <c r="L40">
-        <v>0.70960000000000001</v>
+        <v>0.52170000000000005</v>
       </c>
       <c r="M40">
-        <v>0.82</v>
+        <v>0.7</v>
       </c>
       <c r="N40">
-        <v>1.3093367765882999</v>
+        <v>1.9500405411500701</v>
       </c>
       <c r="O40">
-        <v>4.2188300911245001E-3</v>
+        <v>0</v>
       </c>
       <c r="P40">
-        <v>0.50791900459413897</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>182</v>
-      </c>
-      <c r="B41">
-        <v>3</v>
+        <v>398</v>
+      </c>
+      <c r="B41" t="s">
+        <v>399</v>
       </c>
       <c r="C41">
-        <v>525.66666666666697</v>
+        <v>3</v>
       </c>
       <c r="D41">
-        <v>76.5136153461156</v>
+        <v>374</v>
       </c>
       <c r="E41">
-        <v>44.1751564167513</v>
-      </c>
-      <c r="F41" t="s">
-        <v>183</v>
+        <v>27.838821814150101</v>
+      </c>
+      <c r="F41">
+        <v>16.0727512683216</v>
       </c>
       <c r="G41" t="s">
-        <v>184</v>
+        <v>399</v>
       </c>
       <c r="H41" t="s">
+        <v>94</v>
+      </c>
+      <c r="I41" t="s">
         <v>20</v>
       </c>
-      <c r="I41" t="s">
-        <v>185</v>
-      </c>
       <c r="J41" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="K41" t="s">
-        <v>186</v>
+        <v>400</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4405,13 +4408,13 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>12.7151982233799</v>
+        <v>4.6862307024685697</v>
       </c>
       <c r="O41">
-        <v>0.89005649838359002</v>
+        <v>0.73126147652250395</v>
       </c>
       <c r="P41">
-        <v>0.89946807746244395</v>
+        <v>0.82171785239064599</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -4419,52 +4422,52 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>187</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
+        <v>301</v>
+      </c>
+      <c r="B42" t="s">
+        <v>302</v>
       </c>
       <c r="C42">
-        <v>249.5</v>
+        <v>2</v>
       </c>
       <c r="D42">
-        <v>31.819805153394601</v>
+        <v>220</v>
       </c>
       <c r="E42">
-        <v>22.5</v>
-      </c>
-      <c r="F42" t="s">
-        <v>50</v>
+        <v>8.4852813742385695</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
       </c>
       <c r="G42" t="s">
-        <v>188</v>
+        <v>302</v>
       </c>
       <c r="H42" t="s">
+        <v>303</v>
+      </c>
+      <c r="I42" t="s">
         <v>20</v>
       </c>
-      <c r="I42" t="s">
-        <v>50</v>
-      </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="K42" t="s">
-        <v>189</v>
+        <v>304</v>
       </c>
       <c r="L42">
-        <v>0.39350000000000002</v>
+        <v>0.82069999999999999</v>
       </c>
       <c r="M42">
-        <v>0.6</v>
+        <v>0.89</v>
       </c>
       <c r="N42">
-        <v>1.39645993147069</v>
+        <v>2.03481912943416</v>
       </c>
       <c r="O42">
-        <v>7.6438349741690004E-2</v>
+        <v>0</v>
       </c>
       <c r="P42">
-        <v>7.6438349741690004E-2</v>
+        <v>0</v>
       </c>
       <c r="Q42">
         <v>2</v>
@@ -4472,143 +4475,143 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>190</v>
-      </c>
-      <c r="B43">
-        <v>3</v>
+        <v>172</v>
+      </c>
+      <c r="B43" t="s">
+        <v>174</v>
       </c>
       <c r="C43">
-        <v>1665.6666666666699</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>147.42229591664</v>
+        <v>233</v>
       </c>
       <c r="E43">
-        <v>85.114302232024698</v>
-      </c>
-      <c r="F43" t="s">
-        <v>191</v>
+        <v>32.5269119345812</v>
+      </c>
+      <c r="F43">
+        <v>23</v>
       </c>
       <c r="G43" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="H43" t="s">
+        <v>102</v>
+      </c>
+      <c r="I43" t="s">
         <v>20</v>
       </c>
-      <c r="I43" t="s">
-        <v>192</v>
-      </c>
       <c r="J43" t="s">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="K43" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>0.65269999999999995</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="N43">
-        <v>28.905469951920999</v>
+        <v>1.84087248301058</v>
       </c>
       <c r="O43">
-        <v>0.96877634207741603</v>
+        <v>0.41358118840699698</v>
       </c>
       <c r="P43">
-        <v>0.97249435535717899</v>
+        <v>0.41358118840699698</v>
       </c>
       <c r="Q43">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>194</v>
-      </c>
-      <c r="B44">
-        <v>2</v>
+        <v>385</v>
+      </c>
+      <c r="B44" t="s">
+        <v>386</v>
       </c>
       <c r="C44">
-        <v>334.5</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>26.162950903902299</v>
+        <v>385</v>
       </c>
       <c r="E44">
-        <v>18.5</v>
-      </c>
-      <c r="F44" t="s">
-        <v>29</v>
+        <v>37.643060449437399</v>
+      </c>
+      <c r="F44">
+        <v>21.733231083604</v>
       </c>
       <c r="G44" t="s">
-        <v>195</v>
+        <v>386</v>
       </c>
       <c r="H44" t="s">
-        <v>31</v>
+        <v>387</v>
       </c>
       <c r="I44" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J44" t="s">
         <v>21</v>
       </c>
       <c r="K44" t="s">
-        <v>196</v>
+        <v>388</v>
       </c>
       <c r="L44">
-        <v>4.1999999999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>2.0676242744672502</v>
+        <v>5.9360286602339496</v>
       </c>
       <c r="O44">
-        <v>0.54348513900168305</v>
+        <v>0.83278877762890302</v>
       </c>
       <c r="P44">
-        <v>0.54348513900168305</v>
+        <v>0.87883567232833704</v>
       </c>
       <c r="Q44">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>197</v>
-      </c>
-      <c r="B45">
-        <v>3</v>
+        <v>420</v>
+      </c>
+      <c r="B45" t="s">
+        <v>386</v>
       </c>
       <c r="C45">
-        <v>600.66666666666697</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>64.508397386180107</v>
+        <v>900.66666666666697</v>
       </c>
       <c r="E45">
-        <v>37.243940595902501</v>
-      </c>
-      <c r="F45" t="s">
-        <v>198</v>
+        <v>228.02265969270101</v>
+      </c>
+      <c r="F45">
+        <v>131.64894395491501</v>
       </c>
       <c r="G45" t="s">
-        <v>199</v>
+        <v>386</v>
       </c>
       <c r="H45" t="s">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="I45" t="s">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="J45" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="K45" t="s">
-        <v>201</v>
+        <v>421</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -4617,13 +4620,13 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>10.749509915649099</v>
+        <v>7.5443811060995403</v>
       </c>
       <c r="O45">
-        <v>0.81101127412644003</v>
+        <v>0.96076444740057798</v>
       </c>
       <c r="P45">
-        <v>0.89277278487233003</v>
+        <v>0.97398639204072202</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -4631,105 +4634,105 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>202</v>
-      </c>
-      <c r="B46">
-        <v>3</v>
+        <v>272</v>
+      </c>
+      <c r="B46" t="s">
+        <v>275</v>
       </c>
       <c r="C46">
-        <v>558.66666666666697</v>
+        <v>2</v>
       </c>
       <c r="D46">
-        <v>142.01877810111401</v>
+        <v>229</v>
       </c>
       <c r="E46">
-        <v>81.994579766659598</v>
-      </c>
-      <c r="F46" t="s">
-        <v>203</v>
+        <v>5.6568542494923797</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
       </c>
       <c r="G46" t="s">
-        <v>204</v>
+        <v>273</v>
       </c>
       <c r="H46" t="s">
-        <v>31</v>
+        <v>274</v>
       </c>
       <c r="I46" t="s">
-        <v>203</v>
+        <v>20</v>
       </c>
       <c r="J46" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="K46" t="s">
-        <v>205</v>
+        <v>276</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="N46">
-        <v>4.11268217261728</v>
+        <v>2.1252159771244998</v>
       </c>
       <c r="O46">
-        <v>0.58984841711096703</v>
+        <v>0</v>
       </c>
       <c r="P46">
-        <v>0.857166626066868</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>206</v>
-      </c>
-      <c r="B47">
-        <v>2</v>
+        <v>28</v>
+      </c>
+      <c r="B47" t="s">
+        <v>29</v>
       </c>
       <c r="C47">
-        <v>267.5</v>
+        <v>2</v>
       </c>
       <c r="D47">
-        <v>27.577164466275399</v>
+        <v>224</v>
       </c>
       <c r="E47">
-        <v>19.5</v>
-      </c>
-      <c r="F47" t="s">
-        <v>207</v>
+        <v>22.627416997969501</v>
+      </c>
+      <c r="F47">
+        <v>16</v>
       </c>
       <c r="G47" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="H47" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I47" t="s">
-        <v>208</v>
+        <v>31</v>
       </c>
       <c r="J47" t="s">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="K47" t="s">
-        <v>209</v>
+        <v>32</v>
       </c>
       <c r="L47">
-        <v>0.18890000000000001</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="M47">
-        <v>0.32</v>
+        <v>0.86</v>
       </c>
       <c r="N47">
-        <v>1.3139254118947701</v>
+        <v>2.3342250581286299</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.247952405917888</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>0.247952405917888</v>
       </c>
       <c r="Q47">
         <v>2</v>
@@ -4737,52 +4740,52 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>210</v>
-      </c>
-      <c r="B48">
-        <v>2</v>
+        <v>194</v>
+      </c>
+      <c r="B48" t="s">
+        <v>29</v>
       </c>
       <c r="C48">
-        <v>273</v>
+        <v>2</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>334.5</v>
       </c>
       <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48" t="s">
-        <v>211</v>
+        <v>26.162950903902299</v>
+      </c>
+      <c r="F48">
+        <v>18.5</v>
       </c>
       <c r="G48" t="s">
-        <v>212</v>
+        <v>29</v>
       </c>
       <c r="H48" t="s">
+        <v>195</v>
+      </c>
+      <c r="I48" t="s">
         <v>31</v>
       </c>
-      <c r="I48" t="s">
-        <v>211</v>
-      </c>
       <c r="J48" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="K48" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="L48">
-        <v>0.15959999999999999</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="M48">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="N48">
-        <v>2.1936436479183699</v>
+        <v>2.0676242744672502</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.54348513900168305</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>0.54348513900168305</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -4790,37 +4793,37 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>214</v>
-      </c>
-      <c r="B49">
-        <v>3</v>
+        <v>259</v>
+      </c>
+      <c r="B49" t="s">
+        <v>261</v>
       </c>
       <c r="C49">
-        <v>1138</v>
+        <v>3</v>
       </c>
       <c r="D49">
-        <v>455.143933278254</v>
+        <v>1343.3333333333301</v>
       </c>
       <c r="E49">
-        <v>262.77747239822497</v>
-      </c>
-      <c r="F49" t="s">
-        <v>215</v>
+        <v>303.13748256085597</v>
+      </c>
+      <c r="F49">
+        <v>175.01650715797601</v>
       </c>
       <c r="G49" t="s">
-        <v>216</v>
+        <v>260</v>
       </c>
       <c r="H49" t="s">
-        <v>20</v>
+        <v>226</v>
       </c>
       <c r="I49" t="s">
-        <v>217</v>
+        <v>31</v>
       </c>
       <c r="J49" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="K49" t="s">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -4829,13 +4832,13 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>4.0796254896216402</v>
+        <v>10.7483971143996</v>
       </c>
       <c r="O49">
-        <v>0.964606685318255</v>
+        <v>0.96154249789169899</v>
       </c>
       <c r="P49">
-        <v>0.97175741887265199</v>
+        <v>0.98653579015614001</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -4843,105 +4846,105 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>219</v>
-      </c>
-      <c r="B50">
-        <v>2</v>
+        <v>405</v>
+      </c>
+      <c r="B50" t="s">
+        <v>407</v>
       </c>
       <c r="C50">
-        <v>271</v>
+        <v>3</v>
       </c>
       <c r="D50">
-        <v>84.852813742385706</v>
+        <v>405.66666666666703</v>
       </c>
       <c r="E50">
-        <v>60</v>
-      </c>
-      <c r="F50" t="s">
-        <v>220</v>
+        <v>13.2035348802256</v>
+      </c>
+      <c r="F50">
+        <v>7.6230644173528503</v>
       </c>
       <c r="G50" t="s">
-        <v>221</v>
+        <v>406</v>
       </c>
       <c r="H50" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="I50" t="s">
-        <v>222</v>
+        <v>31</v>
       </c>
       <c r="J50" t="s">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="K50" t="s">
-        <v>223</v>
+        <v>408</v>
       </c>
       <c r="L50">
-        <v>0.1734</v>
+        <v>0</v>
       </c>
       <c r="M50">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="N50">
-        <v>1.21684924342784</v>
+        <v>5.91740906962049</v>
       </c>
       <c r="O50">
-        <v>4.91603457982011E-3</v>
+        <v>0.76616242931412304</v>
       </c>
       <c r="P50">
-        <v>4.91603457982011E-3</v>
+        <v>0.88180706917435403</v>
       </c>
       <c r="Q50">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>224</v>
-      </c>
-      <c r="B51">
-        <v>3</v>
+        <v>38</v>
+      </c>
+      <c r="B51" t="s">
+        <v>41</v>
       </c>
       <c r="C51">
-        <v>284</v>
+        <v>3</v>
       </c>
       <c r="D51">
-        <v>25.0599281722833</v>
+        <v>3902</v>
       </c>
       <c r="E51">
-        <v>14.468356276140501</v>
-      </c>
-      <c r="F51" t="s">
-        <v>225</v>
+        <v>261.16852796613898</v>
+      </c>
+      <c r="F51">
+        <v>150.78571992510899</v>
       </c>
       <c r="G51" t="s">
-        <v>226</v>
+        <v>39</v>
       </c>
       <c r="H51" t="s">
+        <v>40</v>
+      </c>
+      <c r="I51" t="s">
         <v>20</v>
       </c>
-      <c r="I51" t="s">
-        <v>225</v>
-      </c>
       <c r="J51" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="K51" t="s">
-        <v>227</v>
+        <v>43</v>
       </c>
       <c r="L51">
-        <v>6.1699999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="N51">
-        <v>2.7013930965175601</v>
+        <v>37.090979057399402</v>
       </c>
       <c r="O51">
-        <v>0.27597417168028499</v>
+        <v>0.99220669815614504</v>
       </c>
       <c r="P51">
-        <v>0.46444046479147499</v>
+        <v>0.99493486973493495</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -4949,211 +4952,211 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>228</v>
-      </c>
-      <c r="B52">
-        <v>2</v>
+        <v>143</v>
+      </c>
+      <c r="B52" t="s">
+        <v>41</v>
       </c>
       <c r="C52">
-        <v>186.5</v>
+        <v>3</v>
       </c>
       <c r="D52">
-        <v>21.920310216783001</v>
+        <v>1711</v>
       </c>
       <c r="E52">
-        <v>15.5</v>
-      </c>
-      <c r="F52" t="s">
-        <v>229</v>
+        <v>214.553023749375</v>
+      </c>
+      <c r="F52">
+        <v>123.87224601715</v>
       </c>
       <c r="G52" t="s">
-        <v>151</v>
+        <v>39</v>
       </c>
       <c r="H52" t="s">
+        <v>141</v>
+      </c>
+      <c r="I52" t="s">
         <v>20</v>
       </c>
-      <c r="I52" t="s">
-        <v>229</v>
-      </c>
       <c r="J52" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="K52" t="s">
-        <v>230</v>
+        <v>144</v>
       </c>
       <c r="L52">
-        <v>0.99680000000000002</v>
+        <v>0</v>
       </c>
       <c r="M52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52">
-        <v>1.48935984506067</v>
+        <v>17.116457209945199</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.98440188275299001</v>
       </c>
       <c r="P52">
-        <v>0</v>
+        <v>0.991833652994208</v>
       </c>
       <c r="Q52">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>231</v>
-      </c>
-      <c r="B53">
-        <v>2</v>
+        <v>136</v>
+      </c>
+      <c r="B53" t="s">
+        <v>138</v>
       </c>
       <c r="C53">
-        <v>211</v>
+        <v>3</v>
       </c>
       <c r="D53">
-        <v>5.6568542494923797</v>
+        <v>239</v>
       </c>
       <c r="E53">
-        <v>4</v>
-      </c>
-      <c r="F53" t="s">
-        <v>232</v>
+        <v>11.357816691600499</v>
+      </c>
+      <c r="F53">
+        <v>6.5574385243020004</v>
       </c>
       <c r="G53" t="s">
-        <v>233</v>
+        <v>137</v>
       </c>
       <c r="H53" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" t="s">
         <v>20</v>
       </c>
-      <c r="I53" t="s">
-        <v>232</v>
-      </c>
       <c r="J53" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="K53" t="s">
-        <v>234</v>
+        <v>139</v>
       </c>
       <c r="L53">
-        <v>0.90180000000000005</v>
+        <v>0.58989999999999998</v>
       </c>
       <c r="M53">
-        <v>0.95</v>
+        <v>0.77</v>
       </c>
       <c r="N53">
-        <v>1.72679024654526</v>
+        <v>1.8152631178988601</v>
       </c>
       <c r="O53">
         <v>0</v>
       </c>
       <c r="P53">
-        <v>0</v>
+        <v>0.34230268479751103</v>
       </c>
       <c r="Q53">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>235</v>
-      </c>
-      <c r="B54">
-        <v>3</v>
+        <v>417</v>
+      </c>
+      <c r="B54" t="s">
+        <v>138</v>
       </c>
       <c r="C54">
-        <v>219.666666666667</v>
+        <v>2</v>
       </c>
       <c r="D54">
-        <v>33.7095436535906</v>
+        <v>270.5</v>
       </c>
       <c r="E54">
-        <v>19.462214102659999</v>
-      </c>
-      <c r="F54" t="s">
-        <v>45</v>
+        <v>12.0208152801713</v>
+      </c>
+      <c r="F54">
+        <v>8.5</v>
       </c>
       <c r="G54" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
       <c r="H54" t="s">
-        <v>20</v>
+        <v>418</v>
       </c>
       <c r="I54" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="J54" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K54" t="s">
-        <v>237</v>
+        <v>419</v>
       </c>
       <c r="L54">
-        <v>0.87809999999999999</v>
+        <v>0.17829999999999999</v>
       </c>
       <c r="M54">
-        <v>0.95</v>
+        <v>0.31</v>
       </c>
       <c r="N54">
-        <v>1.1980146387726001</v>
+        <v>1.61291566390184</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>1.7106133192414101E-2</v>
       </c>
       <c r="P54">
-        <v>1.8299349621020301E-2</v>
+        <v>1.7106133192414101E-2</v>
       </c>
       <c r="Q54">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>238</v>
-      </c>
-      <c r="B55">
-        <v>3</v>
+        <v>106</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
       </c>
       <c r="C55">
-        <v>456.33333333333297</v>
+        <v>3</v>
       </c>
       <c r="D55">
-        <v>72.147996045166295</v>
+        <v>314.33333333333297</v>
       </c>
       <c r="E55">
-        <v>41.6546649381688</v>
-      </c>
-      <c r="F55" t="s">
-        <v>34</v>
+        <v>15.0111069989303</v>
+      </c>
+      <c r="F55">
+        <v>8.6666666666666696</v>
       </c>
       <c r="G55" t="s">
-        <v>239</v>
+        <v>107</v>
       </c>
       <c r="H55" t="s">
+        <v>108</v>
+      </c>
+      <c r="I55" t="s">
         <v>20</v>
       </c>
-      <c r="I55" t="s">
-        <v>34</v>
-      </c>
       <c r="J55" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K55" t="s">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N55">
-        <v>5.1081622933052202</v>
+        <v>3.2731174659857798</v>
       </c>
       <c r="O55">
-        <v>0.91916298558307097</v>
+        <v>0.317530835560763</v>
       </c>
       <c r="P55">
-        <v>0.96050064933318002</v>
+        <v>0.36270872977087298</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -5161,52 +5164,52 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>241</v>
-      </c>
-      <c r="B56">
-        <v>3</v>
+        <v>140</v>
+      </c>
+      <c r="B56" t="s">
+        <v>109</v>
       </c>
       <c r="C56">
-        <v>225</v>
+        <v>3</v>
       </c>
       <c r="D56">
-        <v>24.576411454889001</v>
+        <v>516</v>
       </c>
       <c r="E56">
-        <v>14.1891977691952</v>
-      </c>
-      <c r="F56" t="s">
-        <v>242</v>
+        <v>126.297268379011</v>
+      </c>
+      <c r="F56">
+        <v>72.917761896536604</v>
       </c>
       <c r="G56" t="s">
-        <v>226</v>
+        <v>107</v>
       </c>
       <c r="H56" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="I56" t="s">
-        <v>243</v>
+        <v>31</v>
       </c>
       <c r="J56" t="s">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="K56" t="s">
-        <v>244</v>
+        <v>142</v>
       </c>
       <c r="L56">
-        <v>0.81799999999999995</v>
+        <v>0</v>
       </c>
       <c r="M56">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="N56">
-        <v>1.4112843428116399</v>
+        <v>4.2662601742915198</v>
       </c>
       <c r="O56">
-        <v>4.1502924219960699E-2</v>
+        <v>0.80970440567547697</v>
       </c>
       <c r="P56">
-        <v>0.27865458317812403</v>
+        <v>0.91035172337991299</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -5214,143 +5217,143 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>245</v>
-      </c>
-      <c r="B57">
-        <v>2</v>
+        <v>131</v>
+      </c>
+      <c r="B57" t="s">
+        <v>134</v>
       </c>
       <c r="C57">
-        <v>196.5</v>
+        <v>3</v>
       </c>
       <c r="D57">
-        <v>13.4350288425444</v>
+        <v>449.66666666666703</v>
       </c>
       <c r="E57">
-        <v>9.5</v>
-      </c>
-      <c r="F57" t="s">
-        <v>246</v>
+        <v>118.593142016448</v>
+      </c>
+      <c r="F57">
+        <v>68.469782467239597</v>
       </c>
       <c r="G57" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="H57" t="s">
+        <v>133</v>
+      </c>
+      <c r="I57" t="s">
         <v>20</v>
       </c>
-      <c r="I57" t="s">
-        <v>246</v>
-      </c>
       <c r="J57" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="K57" t="s">
-        <v>247</v>
+        <v>135</v>
       </c>
       <c r="L57">
-        <v>0.97599999999999998</v>
+        <v>0</v>
       </c>
       <c r="M57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57">
-        <v>2.4740453348755098</v>
+        <v>5.5005502554421302</v>
       </c>
       <c r="O57">
-        <v>6.1245157814297103E-2</v>
+        <v>0.81035546218174404</v>
       </c>
       <c r="P57">
-        <v>6.1245157814297103E-2</v>
+        <v>0.89894136565431304</v>
       </c>
       <c r="Q57">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>248</v>
-      </c>
-      <c r="B58">
-        <v>2</v>
+        <v>454</v>
+      </c>
+      <c r="B58" t="s">
+        <v>134</v>
       </c>
       <c r="C58">
-        <v>195</v>
+        <v>3</v>
       </c>
       <c r="D58">
-        <v>18.384776310850199</v>
+        <v>854</v>
       </c>
       <c r="E58">
-        <v>13</v>
-      </c>
-      <c r="F58" t="s">
-        <v>249</v>
+        <v>412.18563778957702</v>
+      </c>
+      <c r="F58">
+        <v>237.97548893390999</v>
       </c>
       <c r="G58" t="s">
-        <v>250</v>
+        <v>132</v>
       </c>
       <c r="H58" t="s">
+        <v>455</v>
+      </c>
+      <c r="I58" t="s">
         <v>20</v>
       </c>
-      <c r="I58" t="s">
-        <v>251</v>
-      </c>
       <c r="J58" t="s">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="K58" t="s">
-        <v>252</v>
+        <v>456</v>
       </c>
       <c r="L58">
-        <v>0.97740000000000005</v>
+        <v>0</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58">
-        <v>2.6006641029635902</v>
+        <v>3.9372976658990102</v>
       </c>
       <c r="O58">
-        <v>0.26904970041757098</v>
+        <v>0.83960139812455703</v>
       </c>
       <c r="P58">
-        <v>0.26904970041757098</v>
+        <v>0.91849449093278301</v>
       </c>
       <c r="Q58">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>253</v>
-      </c>
-      <c r="B59">
-        <v>3</v>
+        <v>371</v>
+      </c>
+      <c r="B59" t="s">
+        <v>374</v>
       </c>
       <c r="C59">
-        <v>1438.6666666666699</v>
+        <v>3</v>
       </c>
       <c r="D59">
-        <v>593.15793287566601</v>
+        <v>699.33333333333303</v>
       </c>
       <c r="E59">
-        <v>342.459892217728</v>
-      </c>
-      <c r="F59" t="s">
-        <v>203</v>
+        <v>269.340552708524</v>
+      </c>
+      <c r="F59">
+        <v>155.50384060994901</v>
       </c>
       <c r="G59" t="s">
-        <v>254</v>
+        <v>372</v>
       </c>
       <c r="H59" t="s">
+        <v>373</v>
+      </c>
+      <c r="I59" t="s">
         <v>20</v>
       </c>
-      <c r="I59" t="s">
-        <v>203</v>
-      </c>
       <c r="J59" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="K59" t="s">
-        <v>255</v>
+        <v>375</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -5359,13 +5362,13 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>7.6273877657913998</v>
+        <v>6.8254087584349703</v>
       </c>
       <c r="O59">
-        <v>0.94207286576444704</v>
+        <v>0.73970603357590703</v>
       </c>
       <c r="P59">
-        <v>0.95748625651342101</v>
+        <v>0.83901157643482305</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -5373,37 +5376,37 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>256</v>
-      </c>
-      <c r="B60">
-        <v>4</v>
+        <v>75</v>
+      </c>
+      <c r="B60" t="s">
+        <v>78</v>
       </c>
       <c r="C60">
-        <v>473.75</v>
+        <v>3</v>
       </c>
       <c r="D60">
-        <v>200.09893386356001</v>
+        <v>1713.6666666666699</v>
       </c>
       <c r="E60">
-        <v>100.04946693178</v>
-      </c>
-      <c r="F60" t="s">
-        <v>229</v>
+        <v>179.525299981182</v>
+      </c>
+      <c r="F60">
+        <v>103.648980270484</v>
       </c>
       <c r="G60" t="s">
-        <v>257</v>
+        <v>76</v>
       </c>
       <c r="H60" t="s">
+        <v>77</v>
+      </c>
+      <c r="I60" t="s">
         <v>31</v>
       </c>
-      <c r="I60" t="s">
-        <v>229</v>
-      </c>
       <c r="J60" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="K60" t="s">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -5412,278 +5415,278 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>3.0759948727822302</v>
+        <v>9.4955334710799395</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.76247951454207596</v>
       </c>
       <c r="P60">
-        <v>0.80039125363527996</v>
+        <v>0.94042493449587095</v>
       </c>
       <c r="Q60">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>259</v>
-      </c>
-      <c r="B61">
-        <v>3</v>
+        <v>462</v>
+      </c>
+      <c r="B61" t="s">
+        <v>78</v>
       </c>
       <c r="C61">
-        <v>1343.3333333333301</v>
+        <v>2</v>
       </c>
       <c r="D61">
-        <v>303.13748256085597</v>
+        <v>250.5</v>
       </c>
       <c r="E61">
-        <v>175.01650715797601</v>
-      </c>
-      <c r="F61" t="s">
-        <v>260</v>
+        <v>4.94974746830583</v>
+      </c>
+      <c r="F61">
+        <v>3.5</v>
       </c>
       <c r="G61" t="s">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="H61" t="s">
-        <v>31</v>
+        <v>463</v>
       </c>
       <c r="I61" t="s">
-        <v>261</v>
+        <v>20</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="K61" t="s">
-        <v>262</v>
+        <v>464</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>0.39350000000000002</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="N61">
-        <v>10.7483971143996</v>
+        <v>1.7610487318232</v>
       </c>
       <c r="O61">
-        <v>0.96154249789169899</v>
+        <v>0.364576969366533</v>
       </c>
       <c r="P61">
-        <v>0.98653579015614001</v>
+        <v>0.364576969366533</v>
       </c>
       <c r="Q61">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>263</v>
-      </c>
-      <c r="B62">
-        <v>2</v>
+        <v>376</v>
+      </c>
+      <c r="B62" t="s">
+        <v>379</v>
       </c>
       <c r="C62">
-        <v>199.5</v>
+        <v>3</v>
       </c>
       <c r="D62">
-        <v>30.405591591021501</v>
+        <v>485</v>
       </c>
       <c r="E62">
-        <v>21.5</v>
-      </c>
-      <c r="F62" t="s">
-        <v>127</v>
+        <v>18.5202591774521</v>
+      </c>
+      <c r="F62">
+        <v>10.692676621563599</v>
       </c>
       <c r="G62" t="s">
-        <v>264</v>
+        <v>377</v>
       </c>
       <c r="H62" t="s">
-        <v>31</v>
+        <v>378</v>
       </c>
       <c r="I62" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="J62" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="K62" t="s">
-        <v>265</v>
+        <v>380</v>
       </c>
       <c r="L62">
-        <v>0.9607</v>
+        <v>0</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N62">
-        <v>1.97487914683977</v>
+        <v>5.5958370553783201</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.49168136614063801</v>
       </c>
       <c r="P62">
-        <v>0</v>
+        <v>0.67225591837788901</v>
       </c>
       <c r="Q62">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>266</v>
-      </c>
-      <c r="B63">
-        <v>4</v>
+        <v>228</v>
+      </c>
+      <c r="B63" t="s">
+        <v>229</v>
       </c>
       <c r="C63">
-        <v>445.25</v>
+        <v>2</v>
       </c>
       <c r="D63">
-        <v>165.40531027348101</v>
+        <v>186.5</v>
       </c>
       <c r="E63">
-        <v>82.702655136740702</v>
-      </c>
-      <c r="F63" t="s">
-        <v>267</v>
+        <v>21.920310216783001</v>
+      </c>
+      <c r="F63">
+        <v>15.5</v>
       </c>
       <c r="G63" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="H63" t="s">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="I63" t="s">
-        <v>269</v>
+        <v>20</v>
       </c>
       <c r="J63" t="s">
-        <v>270</v>
+        <v>21</v>
       </c>
       <c r="K63" t="s">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>0.99680000000000002</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63">
-        <v>3.6843144565211601</v>
+        <v>1.48935984506067</v>
       </c>
       <c r="O63">
-        <v>0.53684961084295602</v>
+        <v>0</v>
       </c>
       <c r="P63">
-        <v>0.904835542639566</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>272</v>
-      </c>
-      <c r="B64">
-        <v>2</v>
+        <v>256</v>
+      </c>
+      <c r="B64" t="s">
+        <v>229</v>
       </c>
       <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>473.75</v>
+      </c>
+      <c r="E64">
+        <v>200.09893386356001</v>
+      </c>
+      <c r="F64">
+        <v>100.04946693178</v>
+      </c>
+      <c r="G64" t="s">
         <v>229</v>
       </c>
-      <c r="D64">
-        <v>5.6568542494923797</v>
-      </c>
-      <c r="E64">
+      <c r="H64" t="s">
+        <v>257</v>
+      </c>
+      <c r="I64" t="s">
+        <v>31</v>
+      </c>
+      <c r="J64" t="s">
+        <v>21</v>
+      </c>
+      <c r="K64" t="s">
+        <v>258</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>3.0759948727822302</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0.80039125363527996</v>
+      </c>
+      <c r="Q64">
         <v>4</v>
-      </c>
-      <c r="F64" t="s">
-        <v>273</v>
-      </c>
-      <c r="G64" t="s">
-        <v>274</v>
-      </c>
-      <c r="H64" t="s">
-        <v>20</v>
-      </c>
-      <c r="I64" t="s">
-        <v>275</v>
-      </c>
-      <c r="J64" t="s">
-        <v>175</v>
-      </c>
-      <c r="K64" t="s">
-        <v>276</v>
-      </c>
-      <c r="L64">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="M64">
-        <v>0.83</v>
-      </c>
-      <c r="N64">
-        <v>2.1252159771244998</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>277</v>
-      </c>
-      <c r="B65">
-        <v>2</v>
+        <v>434</v>
+      </c>
+      <c r="B65" t="s">
+        <v>229</v>
       </c>
       <c r="C65">
-        <v>242.5</v>
+        <v>2</v>
       </c>
       <c r="D65">
-        <v>154.85638507985399</v>
+        <v>249</v>
       </c>
       <c r="E65">
-        <v>109.5</v>
-      </c>
-      <c r="F65" t="s">
-        <v>278</v>
+        <v>29.698484809835001</v>
+      </c>
+      <c r="F65">
+        <v>21</v>
       </c>
       <c r="G65" t="s">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="H65" t="s">
-        <v>20</v>
+        <v>337</v>
       </c>
       <c r="I65" t="s">
-        <v>280</v>
+        <v>31</v>
       </c>
       <c r="J65" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="K65" t="s">
-        <v>281</v>
+        <v>435</v>
       </c>
       <c r="L65">
-        <v>0.52170000000000005</v>
+        <v>0.41089999999999999</v>
       </c>
       <c r="M65">
-        <v>0.7</v>
+        <v>0.61</v>
       </c>
       <c r="N65">
-        <v>2.2812171358378199</v>
+        <v>1.99931636740148</v>
       </c>
       <c r="O65">
-        <v>0.36185377578421302</v>
+        <v>0</v>
       </c>
       <c r="P65">
-        <v>0.36185377578421302</v>
+        <v>0</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -5691,46 +5694,46 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>282</v>
-      </c>
-      <c r="B66">
-        <v>2</v>
+        <v>436</v>
+      </c>
+      <c r="B66" t="s">
+        <v>229</v>
       </c>
       <c r="C66">
-        <v>241.5</v>
+        <v>2</v>
       </c>
       <c r="D66">
-        <v>24.7487373415292</v>
+        <v>251.5</v>
       </c>
       <c r="E66">
-        <v>17.5</v>
-      </c>
-      <c r="F66" t="s">
-        <v>283</v>
+        <v>20.506096654409902</v>
+      </c>
+      <c r="F66">
+        <v>14.5</v>
       </c>
       <c r="G66" t="s">
-        <v>284</v>
+        <v>229</v>
       </c>
       <c r="H66" t="s">
+        <v>288</v>
+      </c>
+      <c r="I66" t="s">
         <v>20</v>
-      </c>
-      <c r="I66" t="s">
-        <v>283</v>
       </c>
       <c r="J66" t="s">
         <v>21</v>
       </c>
       <c r="K66" t="s">
-        <v>285</v>
+        <v>437</v>
       </c>
       <c r="L66">
-        <v>0.52170000000000005</v>
+        <v>0.35659999999999997</v>
       </c>
       <c r="M66">
-        <v>0.7</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N66">
-        <v>1.9500405411500701</v>
+        <v>1.8735278165753999</v>
       </c>
       <c r="O66">
         <v>0</v>
@@ -5744,37 +5747,37 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>286</v>
-      </c>
-      <c r="B67">
-        <v>2</v>
+        <v>190</v>
+      </c>
+      <c r="B67" t="s">
+        <v>192</v>
       </c>
       <c r="C67">
-        <v>359.5</v>
+        <v>3</v>
       </c>
       <c r="D67">
-        <v>190.211724139181</v>
+        <v>1665.6666666666699</v>
       </c>
       <c r="E67">
-        <v>134.5</v>
-      </c>
-      <c r="F67" t="s">
-        <v>287</v>
+        <v>147.42229591664</v>
+      </c>
+      <c r="F67">
+        <v>85.114302232024698</v>
       </c>
       <c r="G67" t="s">
-        <v>288</v>
+        <v>191</v>
       </c>
       <c r="H67" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="I67" t="s">
-        <v>289</v>
+        <v>20</v>
       </c>
       <c r="J67" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="K67" t="s">
-        <v>290</v>
+        <v>193</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -5783,119 +5786,119 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <v>2.7216580857388899</v>
+        <v>28.905469951920999</v>
       </c>
       <c r="O67">
-        <v>0.24348773479056399</v>
+        <v>0.96877634207741603</v>
       </c>
       <c r="P67">
-        <v>0.24348773479056399</v>
+        <v>0.97249435535717899</v>
       </c>
       <c r="Q67">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>291</v>
-      </c>
-      <c r="B68">
-        <v>3</v>
+        <v>159</v>
+      </c>
+      <c r="B68" t="s">
+        <v>160</v>
       </c>
       <c r="C68">
-        <v>495.33333333333297</v>
+        <v>2</v>
       </c>
       <c r="D68">
-        <v>47.857427149120099</v>
+        <v>229.5</v>
       </c>
       <c r="E68">
-        <v>27.630498447267399</v>
-      </c>
-      <c r="F68" t="s">
-        <v>292</v>
+        <v>44.547727214752499</v>
+      </c>
+      <c r="F68">
+        <v>31.5</v>
       </c>
       <c r="G68" t="s">
-        <v>293</v>
+        <v>160</v>
       </c>
       <c r="H68" t="s">
+        <v>161</v>
+      </c>
+      <c r="I68" t="s">
         <v>20</v>
       </c>
-      <c r="I68" t="s">
-        <v>294</v>
-      </c>
       <c r="J68" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="K68" t="s">
-        <v>295</v>
+        <v>162</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>0.70320000000000005</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="N68">
-        <v>6.3133878044610698</v>
+        <v>1.86322054778377</v>
       </c>
       <c r="O68">
-        <v>0.66329005289196596</v>
+        <v>1.61813526714806E-2</v>
       </c>
       <c r="P68">
-        <v>0.69650612347506302</v>
+        <v>1.61813526714806E-2</v>
       </c>
       <c r="Q68">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>296</v>
-      </c>
-      <c r="B69">
-        <v>3</v>
+        <v>44</v>
+      </c>
+      <c r="B69" t="s">
+        <v>45</v>
       </c>
       <c r="C69">
-        <v>379.33333333333297</v>
+        <v>3</v>
       </c>
       <c r="D69">
-        <v>31.4695620136877</v>
+        <v>317.33333333333297</v>
       </c>
       <c r="E69">
-        <v>18.168960099882199</v>
-      </c>
-      <c r="F69" t="s">
-        <v>297</v>
+        <v>18.230011885167102</v>
+      </c>
+      <c r="F69">
+        <v>10.525102269231301</v>
       </c>
       <c r="G69" t="s">
-        <v>298</v>
+        <v>45</v>
       </c>
       <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
         <v>20</v>
       </c>
-      <c r="I69" t="s">
-        <v>299</v>
-      </c>
       <c r="J69" t="s">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="K69" t="s">
-        <v>300</v>
+        <v>48</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>4.3E-3</v>
       </c>
       <c r="M69">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N69">
-        <v>5.8115079597476802</v>
+        <v>2.22790003570449</v>
       </c>
       <c r="O69">
-        <v>0.63066717450195198</v>
+        <v>0.121912705778823</v>
       </c>
       <c r="P69">
-        <v>0.81917422206347601</v>
+        <v>0.26096984074538099</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -5903,211 +5906,211 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>301</v>
-      </c>
-      <c r="B70">
-        <v>2</v>
+        <v>235</v>
+      </c>
+      <c r="B70" t="s">
+        <v>45</v>
       </c>
       <c r="C70">
-        <v>220</v>
+        <v>3</v>
       </c>
       <c r="D70">
-        <v>8.4852813742385695</v>
+        <v>219.666666666667</v>
       </c>
       <c r="E70">
-        <v>6</v>
-      </c>
-      <c r="F70" t="s">
-        <v>302</v>
+        <v>33.7095436535906</v>
+      </c>
+      <c r="F70">
+        <v>19.462214102659999</v>
       </c>
       <c r="G70" t="s">
-        <v>303</v>
+        <v>45</v>
       </c>
       <c r="H70" t="s">
+        <v>236</v>
+      </c>
+      <c r="I70" t="s">
         <v>20</v>
       </c>
-      <c r="I70" t="s">
-        <v>302</v>
-      </c>
       <c r="J70" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="K70" t="s">
-        <v>304</v>
+        <v>237</v>
       </c>
       <c r="L70">
-        <v>0.82069999999999999</v>
+        <v>0.87809999999999999</v>
       </c>
       <c r="M70">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="N70">
-        <v>2.03481912943416</v>
+        <v>1.1980146387726001</v>
       </c>
       <c r="O70">
         <v>0</v>
       </c>
       <c r="P70">
-        <v>0</v>
+        <v>1.8299349621020301E-2</v>
       </c>
       <c r="Q70">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>305</v>
-      </c>
-      <c r="B71">
-        <v>2</v>
+        <v>318</v>
+      </c>
+      <c r="B71" t="s">
+        <v>319</v>
       </c>
       <c r="C71">
-        <v>235</v>
+        <v>3</v>
       </c>
       <c r="D71">
-        <v>11.3137084989848</v>
+        <v>330.33333333333297</v>
       </c>
       <c r="E71">
-        <v>8</v>
-      </c>
-      <c r="F71" t="s">
-        <v>306</v>
+        <v>62.1154838452807</v>
+      </c>
+      <c r="F71">
+        <v>35.8623913189167</v>
       </c>
       <c r="G71" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="H71" t="s">
+        <v>320</v>
+      </c>
+      <c r="I71" t="s">
         <v>31</v>
-      </c>
-      <c r="I71" t="s">
-        <v>306</v>
       </c>
       <c r="J71" t="s">
         <v>104</v>
       </c>
       <c r="K71" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="L71">
-        <v>0.63439999999999996</v>
+        <v>1E-3</v>
       </c>
       <c r="M71">
-        <v>0.81</v>
+        <v>0</v>
       </c>
       <c r="N71">
-        <v>2.03639959204502</v>
+        <v>3.2054440911837099</v>
       </c>
       <c r="O71">
-        <v>4.9318067775633898E-2</v>
+        <v>0.239664632290716</v>
       </c>
       <c r="P71">
-        <v>4.9318067775633898E-2</v>
+        <v>0.60605044494879301</v>
       </c>
       <c r="Q71">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>309</v>
-      </c>
-      <c r="B72">
-        <v>3</v>
+        <v>394</v>
+      </c>
+      <c r="B72" t="s">
+        <v>395</v>
       </c>
       <c r="C72">
-        <v>288.33333333333297</v>
+        <v>2</v>
       </c>
       <c r="D72">
-        <v>392.67331629910001</v>
+        <v>242</v>
       </c>
       <c r="E72">
-        <v>226.71004486886901</v>
-      </c>
-      <c r="F72" t="s">
-        <v>310</v>
+        <v>15.556349186104001</v>
+      </c>
+      <c r="F72">
+        <v>11</v>
       </c>
       <c r="G72" t="s">
-        <v>311</v>
+        <v>395</v>
       </c>
       <c r="H72" t="s">
+        <v>396</v>
+      </c>
+      <c r="I72" t="s">
         <v>20</v>
       </c>
-      <c r="I72" t="s">
-        <v>312</v>
-      </c>
       <c r="J72" t="s">
-        <v>104</v>
+        <v>326</v>
       </c>
       <c r="K72" t="s">
-        <v>313</v>
+        <v>397</v>
       </c>
       <c r="L72">
-        <v>4.5999999999999999E-2</v>
+        <v>0.52170000000000005</v>
       </c>
       <c r="M72">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="N72">
-        <v>1.56846986037701</v>
+        <v>2.47813704986911</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>4.3421764265267303E-2</v>
       </c>
       <c r="P72">
-        <v>0.23629068554570501</v>
+        <v>4.3421764265267303E-2</v>
       </c>
       <c r="Q72">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>314</v>
-      </c>
-      <c r="B73">
-        <v>3</v>
+        <v>309</v>
+      </c>
+      <c r="B73" t="s">
+        <v>312</v>
       </c>
       <c r="C73">
-        <v>1402</v>
+        <v>3</v>
       </c>
       <c r="D73">
-        <v>102.50365847129601</v>
+        <v>288.33333333333297</v>
       </c>
       <c r="E73">
-        <v>59.180514811324002</v>
-      </c>
-      <c r="F73" t="s">
-        <v>315</v>
+        <v>392.67331629910001</v>
+      </c>
+      <c r="F73">
+        <v>226.71004486886901</v>
       </c>
       <c r="G73" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="H73" t="s">
-        <v>31</v>
+        <v>311</v>
       </c>
       <c r="I73" t="s">
-        <v>315</v>
+        <v>20</v>
       </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="K73" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N73">
-        <v>16.822270126765599</v>
+        <v>1.56846986037701</v>
       </c>
       <c r="O73">
-        <v>0.97653943361999196</v>
+        <v>0</v>
       </c>
       <c r="P73">
-        <v>0.97965629654942099</v>
+        <v>0.23629068554570501</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -6115,158 +6118,158 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>318</v>
-      </c>
-      <c r="B74">
-        <v>3</v>
+        <v>163</v>
+      </c>
+      <c r="B74" t="s">
+        <v>166</v>
       </c>
       <c r="C74">
-        <v>330.33333333333297</v>
+        <v>2</v>
       </c>
       <c r="D74">
-        <v>62.1154838452807</v>
+        <v>230</v>
       </c>
       <c r="E74">
-        <v>35.8623913189167</v>
-      </c>
-      <c r="F74" t="s">
-        <v>319</v>
+        <v>2.8284271247461898</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
       </c>
       <c r="G74" t="s">
-        <v>320</v>
+        <v>164</v>
       </c>
       <c r="H74" t="s">
-        <v>31</v>
+        <v>165</v>
       </c>
       <c r="I74" t="s">
-        <v>319</v>
+        <v>20</v>
       </c>
       <c r="J74" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="K74" t="s">
-        <v>321</v>
+        <v>167</v>
       </c>
       <c r="L74">
-        <v>1E-3</v>
+        <v>0.70320000000000005</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="N74">
-        <v>3.2054440911837099</v>
+        <v>1.3910093936537999</v>
       </c>
       <c r="O74">
-        <v>0.239664632290716</v>
+        <v>0</v>
       </c>
       <c r="P74">
-        <v>0.60605044494879301</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>322</v>
-      </c>
-      <c r="B75">
-        <v>3</v>
+        <v>348</v>
+      </c>
+      <c r="B75" t="s">
+        <v>351</v>
       </c>
       <c r="C75">
-        <v>1901.3333333333301</v>
+        <v>2</v>
       </c>
       <c r="D75">
-        <v>694.51013911485404</v>
+        <v>277.5</v>
       </c>
       <c r="E75">
-        <v>400.97561577288502</v>
-      </c>
-      <c r="F75" t="s">
-        <v>323</v>
+        <v>10.606601717798201</v>
+      </c>
+      <c r="F75">
+        <v>7.5</v>
       </c>
       <c r="G75" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="H75" t="s">
+        <v>350</v>
+      </c>
+      <c r="I75" t="s">
         <v>20</v>
       </c>
-      <c r="I75" t="s">
-        <v>325</v>
-      </c>
       <c r="J75" t="s">
-        <v>326</v>
+        <v>270</v>
       </c>
       <c r="K75" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>0.1358</v>
       </c>
       <c r="M75">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="N75">
-        <v>7.08961637145923</v>
+        <v>2.2426443858246898</v>
       </c>
       <c r="O75">
-        <v>0.97722884903153795</v>
+        <v>0.16408715959238701</v>
       </c>
       <c r="P75">
-        <v>0.98676176955877704</v>
+        <v>0.16408715959238701</v>
       </c>
       <c r="Q75">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>328</v>
-      </c>
-      <c r="B76">
-        <v>2</v>
+        <v>219</v>
+      </c>
+      <c r="B76" t="s">
+        <v>222</v>
       </c>
       <c r="C76">
-        <v>232.5</v>
+        <v>2</v>
       </c>
       <c r="D76">
-        <v>28.991378028648398</v>
+        <v>271</v>
       </c>
       <c r="E76">
-        <v>20.5</v>
-      </c>
-      <c r="F76" t="s">
-        <v>329</v>
+        <v>84.852813742385706</v>
+      </c>
+      <c r="F76">
+        <v>60</v>
       </c>
       <c r="G76" t="s">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="H76" t="s">
+        <v>221</v>
+      </c>
+      <c r="I76" t="s">
         <v>20</v>
       </c>
-      <c r="I76" t="s">
-        <v>329</v>
-      </c>
       <c r="J76" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="K76" t="s">
-        <v>330</v>
+        <v>223</v>
       </c>
       <c r="L76">
-        <v>0.67020000000000002</v>
+        <v>0.1734</v>
       </c>
       <c r="M76">
-        <v>0.82</v>
+        <v>0.31</v>
       </c>
       <c r="N76">
-        <v>2.4983610673258001</v>
+        <v>1.21684924342784</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>4.91603457982011E-3</v>
       </c>
       <c r="P76">
-        <v>0</v>
+        <v>4.91603457982011E-3</v>
       </c>
       <c r="Q76">
         <v>2</v>
@@ -6274,317 +6277,317 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>331</v>
-      </c>
-      <c r="B77">
-        <v>3</v>
+        <v>343</v>
+      </c>
+      <c r="B77" t="s">
+        <v>346</v>
       </c>
       <c r="C77">
-        <v>333</v>
+        <v>2</v>
       </c>
       <c r="D77">
-        <v>68.198240446510098</v>
+        <v>247.5</v>
       </c>
       <c r="E77">
-        <v>39.374272480051403</v>
-      </c>
-      <c r="F77" t="s">
-        <v>332</v>
+        <v>47.376154339498697</v>
+      </c>
+      <c r="F77">
+        <v>33.5</v>
       </c>
       <c r="G77" t="s">
-        <v>98</v>
+        <v>344</v>
       </c>
       <c r="H77" t="s">
+        <v>345</v>
+      </c>
+      <c r="I77" t="s">
         <v>20</v>
       </c>
-      <c r="I77" t="s">
-        <v>333</v>
-      </c>
       <c r="J77" t="s">
-        <v>104</v>
+        <v>270</v>
       </c>
       <c r="K77" t="s">
-        <v>334</v>
-      </c>
-      <c r="L77" s="1">
-        <v>5.9999999999999995E-4</v>
+        <v>347</v>
+      </c>
+      <c r="L77">
+        <v>0.4239</v>
       </c>
       <c r="M77">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="N77">
-        <v>2.7492518555540602</v>
+        <v>1.51049400294477</v>
       </c>
       <c r="O77">
-        <v>0.105166433108648</v>
+        <v>0.132521211353098</v>
       </c>
       <c r="P77">
-        <v>0.60542149167004</v>
+        <v>0.132521211353098</v>
       </c>
       <c r="Q77">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>335</v>
-      </c>
-      <c r="B78">
-        <v>2</v>
+        <v>366</v>
+      </c>
+      <c r="B78" t="s">
+        <v>369</v>
       </c>
       <c r="C78">
-        <v>185</v>
+        <v>3</v>
       </c>
       <c r="D78">
-        <v>16.9705627484771</v>
+        <v>340.66666666666703</v>
       </c>
       <c r="E78">
-        <v>12</v>
-      </c>
-      <c r="F78" t="s">
-        <v>336</v>
+        <v>3.7859388972001802</v>
+      </c>
+      <c r="F78">
+        <v>2.1858128414340001</v>
       </c>
       <c r="G78" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
       <c r="H78" t="s">
+        <v>368</v>
+      </c>
+      <c r="I78" t="s">
         <v>20</v>
-      </c>
-      <c r="I78" t="s">
-        <v>336</v>
       </c>
       <c r="J78" t="s">
         <v>21</v>
       </c>
       <c r="K78" t="s">
-        <v>338</v>
-      </c>
-      <c r="L78">
-        <v>0.99680000000000002</v>
+        <v>370</v>
+      </c>
+      <c r="L78" s="1">
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="M78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N78">
-        <v>2.0942818565935699</v>
+        <v>4.3793204294588</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>0.509600908000437</v>
       </c>
       <c r="P78">
-        <v>0</v>
+        <v>0.76357206752154705</v>
       </c>
       <c r="Q78">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>339</v>
-      </c>
-      <c r="B79">
-        <v>2</v>
+        <v>362</v>
+      </c>
+      <c r="B79" t="s">
+        <v>364</v>
       </c>
       <c r="C79">
-        <v>247</v>
+        <v>3</v>
       </c>
       <c r="D79">
-        <v>43.840620433565903</v>
+        <v>277.33333333333297</v>
       </c>
       <c r="E79">
-        <v>31</v>
-      </c>
-      <c r="F79" t="s">
-        <v>340</v>
+        <v>22.2785397486759</v>
+      </c>
+      <c r="F79">
+        <v>12.8625209210498</v>
       </c>
       <c r="G79" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="H79" t="s">
+        <v>128</v>
+      </c>
+      <c r="I79" t="s">
         <v>20</v>
       </c>
-      <c r="I79" t="s">
-        <v>340</v>
-      </c>
       <c r="J79" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="K79" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="L79">
-        <v>0.43240000000000001</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="M79">
-        <v>0.62</v>
+        <v>0.19</v>
       </c>
       <c r="N79">
-        <v>1.30630744975669</v>
+        <v>2.8417217275775002</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>0.244239133017608</v>
       </c>
       <c r="P79">
-        <v>0</v>
+        <v>0.481849563105755</v>
       </c>
       <c r="Q79">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>343</v>
-      </c>
-      <c r="B80">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="B80" t="s">
+        <v>18</v>
       </c>
       <c r="C80">
-        <v>247.5</v>
+        <v>3</v>
       </c>
       <c r="D80">
-        <v>47.376154339498697</v>
+        <v>287</v>
       </c>
       <c r="E80">
-        <v>33.5</v>
-      </c>
-      <c r="F80" t="s">
-        <v>344</v>
+        <v>7.8102496759066504</v>
+      </c>
+      <c r="F80">
+        <v>4.5092497528228899</v>
       </c>
       <c r="G80" t="s">
-        <v>345</v>
+        <v>18</v>
       </c>
       <c r="H80" t="s">
+        <v>19</v>
+      </c>
+      <c r="I80" t="s">
         <v>20</v>
       </c>
-      <c r="I80" t="s">
-        <v>346</v>
-      </c>
       <c r="J80" t="s">
-        <v>270</v>
+        <v>21</v>
       </c>
       <c r="K80" t="s">
-        <v>347</v>
+        <v>22</v>
       </c>
       <c r="L80">
-        <v>0.4239</v>
+        <v>4.9399999999999999E-2</v>
       </c>
       <c r="M80">
-        <v>0.61</v>
+        <v>0.1</v>
       </c>
       <c r="N80">
-        <v>1.51049400294477</v>
+        <v>2.8344730952614801</v>
       </c>
       <c r="O80">
-        <v>0.132521211353098</v>
+        <v>0.25318087534161199</v>
       </c>
       <c r="P80">
-        <v>0.132521211353098</v>
+        <v>0.33736627545171199</v>
       </c>
       <c r="Q80">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>348</v>
-      </c>
-      <c r="B81">
-        <v>2</v>
+        <v>119</v>
+      </c>
+      <c r="B81" t="s">
+        <v>120</v>
       </c>
       <c r="C81">
-        <v>277.5</v>
+        <v>3</v>
       </c>
       <c r="D81">
-        <v>10.606601717798201</v>
+        <v>347</v>
       </c>
       <c r="E81">
-        <v>7.5</v>
-      </c>
-      <c r="F81" t="s">
-        <v>349</v>
+        <v>29</v>
+      </c>
+      <c r="F81">
+        <v>16.743157806499099</v>
       </c>
       <c r="G81" t="s">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="H81" t="s">
+        <v>121</v>
+      </c>
+      <c r="I81" t="s">
         <v>20</v>
       </c>
-      <c r="I81" t="s">
-        <v>351</v>
-      </c>
       <c r="J81" t="s">
-        <v>270</v>
+        <v>104</v>
       </c>
       <c r="K81" t="s">
-        <v>352</v>
-      </c>
-      <c r="L81">
-        <v>0.1358</v>
+        <v>122</v>
+      </c>
+      <c r="L81" s="1">
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="M81">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="N81">
-        <v>2.2426443858246898</v>
+        <v>2.5255047564980702</v>
       </c>
       <c r="O81">
-        <v>0.16408715959238701</v>
+        <v>0.42783177501793102</v>
       </c>
       <c r="P81">
-        <v>0.16408715959238701</v>
+        <v>0.80485994153263396</v>
       </c>
       <c r="Q81">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>353</v>
-      </c>
-      <c r="B82">
-        <v>3</v>
+        <v>123</v>
+      </c>
+      <c r="B82" t="s">
+        <v>120</v>
       </c>
       <c r="C82">
-        <v>819.66666666666697</v>
+        <v>3</v>
       </c>
       <c r="D82">
-        <v>186.05733883223601</v>
+        <v>264.33333333333297</v>
       </c>
       <c r="E82">
-        <v>107.420254659497</v>
-      </c>
-      <c r="F82" t="s">
-        <v>354</v>
+        <v>15.307950004273399</v>
+      </c>
+      <c r="F82">
+        <v>8.83804905570857</v>
       </c>
       <c r="G82" t="s">
-        <v>355</v>
+        <v>120</v>
       </c>
       <c r="H82" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="I82" t="s">
-        <v>354</v>
+        <v>31</v>
       </c>
       <c r="J82" t="s">
         <v>104</v>
       </c>
       <c r="K82" t="s">
-        <v>356</v>
+        <v>125</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>0.2011</v>
       </c>
       <c r="M82">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="N82">
-        <v>13.5480609989856</v>
+        <v>1.30191238511458</v>
       </c>
       <c r="O82">
-        <v>0.86148282159799405</v>
+        <v>0</v>
       </c>
       <c r="P82">
-        <v>0.93748347355412798</v>
+        <v>0</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -6592,52 +6595,52 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>357</v>
-      </c>
-      <c r="B83">
-        <v>3</v>
+        <v>145</v>
+      </c>
+      <c r="B83" t="s">
+        <v>146</v>
       </c>
       <c r="C83">
-        <v>332</v>
+        <v>3</v>
       </c>
       <c r="D83">
-        <v>60.024994793835702</v>
+        <v>219.333333333333</v>
       </c>
       <c r="E83">
-        <v>34.655446902326901</v>
-      </c>
-      <c r="F83" t="s">
-        <v>358</v>
+        <v>12.5033328890074</v>
+      </c>
+      <c r="F83">
+        <v>7.2188026092359099</v>
       </c>
       <c r="G83" t="s">
-        <v>359</v>
+        <v>146</v>
       </c>
       <c r="H83" t="s">
+        <v>147</v>
+      </c>
+      <c r="I83" t="s">
         <v>20</v>
       </c>
-      <c r="I83" t="s">
-        <v>358</v>
-      </c>
       <c r="J83" t="s">
-        <v>360</v>
+        <v>21</v>
       </c>
       <c r="K83" t="s">
-        <v>361</v>
-      </c>
-      <c r="L83" s="1">
-        <v>5.9999999999999995E-4</v>
+        <v>148</v>
+      </c>
+      <c r="L83">
+        <v>0.89049999999999996</v>
       </c>
       <c r="M83">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="N83">
-        <v>4.1417763773365897</v>
+        <v>2.42274145673476</v>
       </c>
       <c r="O83">
-        <v>0.50677137672253803</v>
+        <v>0.28871340439184701</v>
       </c>
       <c r="P83">
-        <v>0.56431657387291101</v>
+        <v>0.74649308747467402</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -6645,143 +6648,143 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>362</v>
-      </c>
-      <c r="B84">
-        <v>3</v>
+        <v>277</v>
+      </c>
+      <c r="B84" t="s">
+        <v>280</v>
       </c>
       <c r="C84">
-        <v>277.33333333333297</v>
+        <v>2</v>
       </c>
       <c r="D84">
-        <v>22.2785397486759</v>
+        <v>242.5</v>
       </c>
       <c r="E84">
-        <v>12.8625209210498</v>
-      </c>
-      <c r="F84" t="s">
-        <v>363</v>
+        <v>154.85638507985399</v>
+      </c>
+      <c r="F84">
+        <v>109.5</v>
       </c>
       <c r="G84" t="s">
-        <v>128</v>
+        <v>278</v>
       </c>
       <c r="H84" t="s">
+        <v>279</v>
+      </c>
+      <c r="I84" t="s">
         <v>20</v>
       </c>
-      <c r="I84" t="s">
-        <v>364</v>
-      </c>
       <c r="J84" t="s">
-        <v>270</v>
+        <v>65</v>
       </c>
       <c r="K84" t="s">
-        <v>365</v>
+        <v>281</v>
       </c>
       <c r="L84">
-        <v>9.6000000000000002E-2</v>
+        <v>0.52170000000000005</v>
       </c>
       <c r="M84">
-        <v>0.19</v>
+        <v>0.7</v>
       </c>
       <c r="N84">
-        <v>2.8417217275775002</v>
+        <v>2.2812171358378199</v>
       </c>
       <c r="O84">
-        <v>0.244239133017608</v>
+        <v>0.36185377578421302</v>
       </c>
       <c r="P84">
-        <v>0.481849563105755</v>
+        <v>0.36185377578421302</v>
       </c>
       <c r="Q84">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>366</v>
-      </c>
-      <c r="B85">
-        <v>3</v>
+        <v>61</v>
+      </c>
+      <c r="B85" t="s">
+        <v>64</v>
       </c>
       <c r="C85">
-        <v>340.66666666666703</v>
+        <v>2</v>
       </c>
       <c r="D85">
-        <v>3.7859388972001802</v>
+        <v>230</v>
       </c>
       <c r="E85">
-        <v>2.1858128414340001</v>
-      </c>
-      <c r="F85" t="s">
-        <v>367</v>
+        <v>24.0416305603426</v>
+      </c>
+      <c r="F85">
+        <v>17</v>
       </c>
       <c r="G85" t="s">
-        <v>368</v>
+        <v>62</v>
       </c>
       <c r="H85" t="s">
+        <v>63</v>
+      </c>
+      <c r="I85" t="s">
         <v>20</v>
       </c>
-      <c r="I85" t="s">
-        <v>369</v>
-      </c>
       <c r="J85" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="K85" t="s">
-        <v>370</v>
-      </c>
-      <c r="L85" s="1">
-        <v>2.9999999999999997E-4</v>
+        <v>66</v>
+      </c>
+      <c r="L85">
+        <v>0.70320000000000005</v>
       </c>
       <c r="M85">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="N85">
-        <v>4.3793204294588</v>
+        <v>1.59650928763273</v>
       </c>
       <c r="O85">
-        <v>0.509600908000437</v>
+        <v>0</v>
       </c>
       <c r="P85">
-        <v>0.76357206752154705</v>
+        <v>0</v>
       </c>
       <c r="Q85">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>371</v>
-      </c>
-      <c r="B86">
-        <v>3</v>
+        <v>182</v>
+      </c>
+      <c r="B86" t="s">
+        <v>185</v>
       </c>
       <c r="C86">
-        <v>699.33333333333303</v>
+        <v>3</v>
       </c>
       <c r="D86">
-        <v>269.340552708524</v>
+        <v>525.66666666666697</v>
       </c>
       <c r="E86">
-        <v>155.50384060994901</v>
-      </c>
-      <c r="F86" t="s">
-        <v>372</v>
+        <v>76.5136153461156</v>
+      </c>
+      <c r="F86">
+        <v>44.1751564167513</v>
       </c>
       <c r="G86" t="s">
-        <v>373</v>
+        <v>183</v>
       </c>
       <c r="H86" t="s">
+        <v>184</v>
+      </c>
+      <c r="I86" t="s">
         <v>20</v>
-      </c>
-      <c r="I86" t="s">
-        <v>374</v>
       </c>
       <c r="J86" t="s">
         <v>65</v>
       </c>
       <c r="K86" t="s">
-        <v>375</v>
+        <v>186</v>
       </c>
       <c r="L86">
         <v>0</v>
@@ -6790,13 +6793,13 @@
         <v>0</v>
       </c>
       <c r="N86">
-        <v>6.8254087584349703</v>
+        <v>12.7151982233799</v>
       </c>
       <c r="O86">
-        <v>0.73970603357590703</v>
+        <v>0.89005649838359002</v>
       </c>
       <c r="P86">
-        <v>0.83901157643482305</v>
+        <v>0.89946807746244395</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -6804,370 +6807,370 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>376</v>
-      </c>
-      <c r="B87">
-        <v>3</v>
+        <v>92</v>
+      </c>
+      <c r="B87" t="s">
+        <v>95</v>
       </c>
       <c r="C87">
-        <v>485</v>
+        <v>2</v>
       </c>
       <c r="D87">
-        <v>18.5202591774521</v>
+        <v>244.5</v>
       </c>
       <c r="E87">
-        <v>10.692676621563599</v>
-      </c>
-      <c r="F87" t="s">
-        <v>377</v>
+        <v>17.677669529663699</v>
+      </c>
+      <c r="F87">
+        <v>12.5</v>
       </c>
       <c r="G87" t="s">
-        <v>378</v>
+        <v>93</v>
       </c>
       <c r="H87" t="s">
+        <v>94</v>
+      </c>
+      <c r="I87" t="s">
         <v>20</v>
       </c>
-      <c r="I87" t="s">
-        <v>379</v>
-      </c>
       <c r="J87" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="K87" t="s">
-        <v>380</v>
+        <v>96</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>0.4904</v>
       </c>
       <c r="M87">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="N87">
-        <v>5.5958370553783201</v>
+        <v>2.0272640052517099</v>
       </c>
       <c r="O87">
-        <v>0.49168136614063801</v>
+        <v>9.80535505626297E-3</v>
       </c>
       <c r="P87">
-        <v>0.67225591837788901</v>
+        <v>9.80535505626297E-3</v>
       </c>
       <c r="Q87">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>381</v>
-      </c>
-      <c r="B88">
-        <v>2</v>
+        <v>97</v>
+      </c>
+      <c r="B88" t="s">
+        <v>95</v>
       </c>
       <c r="C88">
-        <v>239.5</v>
+        <v>3</v>
       </c>
       <c r="D88">
-        <v>51.618795026618002</v>
+        <v>249.333333333333</v>
       </c>
       <c r="E88">
-        <v>36.5</v>
-      </c>
-      <c r="F88" t="s">
-        <v>382</v>
+        <v>8.3864970836060806</v>
+      </c>
+      <c r="F88">
+        <v>4.8419463487779799</v>
       </c>
       <c r="G88" t="s">
-        <v>383</v>
+        <v>93</v>
       </c>
       <c r="H88" t="s">
+        <v>98</v>
+      </c>
+      <c r="I88" t="s">
         <v>31</v>
-      </c>
-      <c r="I88" t="s">
-        <v>382</v>
       </c>
       <c r="J88" t="s">
         <v>26</v>
       </c>
       <c r="K88" t="s">
-        <v>384</v>
+        <v>99</v>
       </c>
       <c r="L88">
-        <v>0.55020000000000002</v>
+        <v>0.41370000000000001</v>
       </c>
       <c r="M88">
-        <v>0.72</v>
+        <v>0.61</v>
       </c>
       <c r="N88">
-        <v>1.12503812470043</v>
+        <v>1.5107616547739899</v>
       </c>
       <c r="O88">
         <v>0</v>
       </c>
       <c r="P88">
-        <v>0</v>
+        <v>0.42281480733176502</v>
       </c>
       <c r="Q88">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>385</v>
-      </c>
-      <c r="B89">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="B89" t="s">
+        <v>103</v>
       </c>
       <c r="C89">
-        <v>385</v>
+        <v>2</v>
       </c>
       <c r="D89">
-        <v>37.643060449437399</v>
+        <v>229.5</v>
       </c>
       <c r="E89">
-        <v>21.733231083604</v>
-      </c>
-      <c r="F89" t="s">
-        <v>386</v>
+        <v>12.0208152801713</v>
+      </c>
+      <c r="F89">
+        <v>8.5</v>
       </c>
       <c r="G89" t="s">
-        <v>387</v>
+        <v>101</v>
       </c>
       <c r="H89" t="s">
+        <v>102</v>
+      </c>
+      <c r="I89" t="s">
         <v>20</v>
       </c>
-      <c r="I89" t="s">
-        <v>386</v>
-      </c>
       <c r="J89" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="K89" t="s">
-        <v>388</v>
+        <v>105</v>
       </c>
       <c r="L89">
-        <v>0</v>
+        <v>0.70320000000000005</v>
       </c>
       <c r="M89">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="N89">
-        <v>5.9360286602339496</v>
+        <v>1.5580259859883601</v>
       </c>
       <c r="O89">
-        <v>0.83278877762890302</v>
+        <v>0</v>
       </c>
       <c r="P89">
-        <v>0.87883567232833704</v>
+        <v>0</v>
       </c>
       <c r="Q89">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>389</v>
-      </c>
-      <c r="B90">
-        <v>2</v>
+        <v>113</v>
+      </c>
+      <c r="B90" t="s">
+        <v>103</v>
       </c>
       <c r="C90">
-        <v>334</v>
+        <v>3</v>
       </c>
       <c r="D90">
-        <v>26.870057685088799</v>
+        <v>619.33333333333303</v>
       </c>
       <c r="E90">
-        <v>19</v>
-      </c>
-      <c r="F90" t="s">
-        <v>390</v>
+        <v>346.92986803291097</v>
+      </c>
+      <c r="F90">
+        <v>200.30005269872299</v>
       </c>
       <c r="G90" t="s">
-        <v>391</v>
+        <v>101</v>
       </c>
       <c r="H90" t="s">
+        <v>114</v>
+      </c>
+      <c r="I90" t="s">
         <v>31</v>
-      </c>
-      <c r="I90" t="s">
-        <v>392</v>
       </c>
       <c r="J90" t="s">
         <v>104</v>
       </c>
       <c r="K90" t="s">
-        <v>393</v>
+        <v>115</v>
       </c>
       <c r="L90">
-        <v>4.1999999999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="M90">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N90">
-        <v>2.2306115895990302</v>
+        <v>3.6236179685275598</v>
       </c>
       <c r="O90">
-        <v>0.64621514349852205</v>
+        <v>0.59644870894079505</v>
       </c>
       <c r="P90">
-        <v>0.64621514349852205</v>
+        <v>0.83448910057577796</v>
       </c>
       <c r="Q90">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>394</v>
-      </c>
-      <c r="B91">
-        <v>2</v>
+        <v>177</v>
+      </c>
+      <c r="B91" t="s">
+        <v>180</v>
       </c>
       <c r="C91">
-        <v>242</v>
+        <v>3</v>
       </c>
       <c r="D91">
-        <v>15.556349186104001</v>
+        <v>231.666666666667</v>
       </c>
       <c r="E91">
-        <v>11</v>
-      </c>
-      <c r="F91" t="s">
-        <v>395</v>
+        <v>18.230011885167102</v>
+      </c>
+      <c r="F91">
+        <v>10.525102269231301</v>
       </c>
       <c r="G91" t="s">
-        <v>396</v>
+        <v>178</v>
       </c>
       <c r="H91" t="s">
+        <v>179</v>
+      </c>
+      <c r="I91" t="s">
         <v>20</v>
       </c>
-      <c r="I91" t="s">
-        <v>395</v>
-      </c>
       <c r="J91" t="s">
-        <v>326</v>
+        <v>175</v>
       </c>
       <c r="K91" t="s">
-        <v>397</v>
+        <v>181</v>
       </c>
       <c r="L91">
-        <v>0.52170000000000005</v>
+        <v>0.70960000000000001</v>
       </c>
       <c r="M91">
-        <v>0.7</v>
+        <v>0.82</v>
       </c>
       <c r="N91">
-        <v>2.47813704986911</v>
+        <v>1.3093367765882999</v>
       </c>
       <c r="O91">
-        <v>4.3421764265267303E-2</v>
+        <v>4.2188300911245001E-3</v>
       </c>
       <c r="P91">
-        <v>4.3421764265267303E-2</v>
+        <v>0.50791900459413897</v>
       </c>
       <c r="Q91">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>398</v>
-      </c>
-      <c r="B92">
-        <v>3</v>
+        <v>206</v>
+      </c>
+      <c r="B92" t="s">
+        <v>208</v>
       </c>
       <c r="C92">
-        <v>374</v>
+        <v>2</v>
       </c>
       <c r="D92">
-        <v>27.838821814150101</v>
+        <v>267.5</v>
       </c>
       <c r="E92">
-        <v>16.0727512683216</v>
-      </c>
-      <c r="F92" t="s">
-        <v>399</v>
+        <v>27.577164466275399</v>
+      </c>
+      <c r="F92">
+        <v>19.5</v>
       </c>
       <c r="G92" t="s">
-        <v>94</v>
+        <v>207</v>
       </c>
       <c r="H92" t="s">
+        <v>128</v>
+      </c>
+      <c r="I92" t="s">
         <v>20</v>
       </c>
-      <c r="I92" t="s">
-        <v>399</v>
-      </c>
       <c r="J92" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="K92" t="s">
-        <v>400</v>
+        <v>209</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>0.18890000000000001</v>
       </c>
       <c r="M92">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="N92">
-        <v>4.6862307024685697</v>
+        <v>1.3139254118947701</v>
       </c>
       <c r="O92">
-        <v>0.73126147652250395</v>
+        <v>0</v>
       </c>
       <c r="P92">
-        <v>0.82171785239064599</v>
+        <v>0</v>
       </c>
       <c r="Q92">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>401</v>
-      </c>
-      <c r="B93">
-        <v>2</v>
+        <v>459</v>
+      </c>
+      <c r="B93" t="s">
+        <v>208</v>
       </c>
       <c r="C93">
-        <v>259.5</v>
+        <v>2</v>
       </c>
       <c r="D93">
-        <v>21.920310216783001</v>
+        <v>228</v>
       </c>
       <c r="E93">
-        <v>15.5</v>
-      </c>
-      <c r="F93" t="s">
-        <v>402</v>
+        <v>1.4142135623731</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>403</v>
+        <v>207</v>
       </c>
       <c r="H93" t="s">
-        <v>31</v>
+        <v>460</v>
       </c>
       <c r="I93" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
       <c r="J93" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="K93" t="s">
-        <v>404</v>
+        <v>461</v>
       </c>
       <c r="L93">
-        <v>0.26150000000000001</v>
+        <v>0.74419999999999997</v>
       </c>
       <c r="M93">
-        <v>0.43</v>
+        <v>0.83</v>
       </c>
       <c r="N93">
-        <v>2.5017197028046798</v>
+        <v>1.9806384288394601</v>
       </c>
       <c r="O93">
-        <v>9.9931200628818398E-2</v>
+        <v>0</v>
       </c>
       <c r="P93">
-        <v>9.9931200628818398E-2</v>
+        <v>0</v>
       </c>
       <c r="Q93">
         <v>2</v>
@@ -7175,52 +7178,52 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>405</v>
-      </c>
-      <c r="B94">
-        <v>3</v>
+        <v>357</v>
+      </c>
+      <c r="B94" t="s">
+        <v>358</v>
       </c>
       <c r="C94">
-        <v>405.66666666666703</v>
+        <v>3</v>
       </c>
       <c r="D94">
-        <v>13.2035348802256</v>
+        <v>332</v>
       </c>
       <c r="E94">
-        <v>7.6230644173528503</v>
-      </c>
-      <c r="F94" t="s">
-        <v>406</v>
+        <v>60.024994793835702</v>
+      </c>
+      <c r="F94">
+        <v>34.655446902326901</v>
       </c>
       <c r="G94" t="s">
-        <v>94</v>
+        <v>358</v>
       </c>
       <c r="H94" t="s">
-        <v>31</v>
+        <v>359</v>
       </c>
       <c r="I94" t="s">
-        <v>407</v>
+        <v>20</v>
       </c>
       <c r="J94" t="s">
-        <v>42</v>
+        <v>360</v>
       </c>
       <c r="K94" t="s">
-        <v>408</v>
-      </c>
-      <c r="L94">
-        <v>0</v>
+        <v>361</v>
+      </c>
+      <c r="L94" s="1">
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="M94">
         <v>0</v>
       </c>
       <c r="N94">
-        <v>5.91740906962049</v>
+        <v>4.1417763773365897</v>
       </c>
       <c r="O94">
-        <v>0.76616242931412304</v>
+        <v>0.50677137672253803</v>
       </c>
       <c r="P94">
-        <v>0.88180706917435403</v>
+        <v>0.56431657387291101</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -7228,52 +7231,52 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>409</v>
-      </c>
-      <c r="B95">
-        <v>2</v>
+        <v>339</v>
+      </c>
+      <c r="B95" t="s">
+        <v>340</v>
       </c>
       <c r="C95">
-        <v>668</v>
+        <v>2</v>
       </c>
       <c r="D95">
-        <v>188.090403795622</v>
+        <v>247</v>
       </c>
       <c r="E95">
-        <v>133</v>
-      </c>
-      <c r="F95" t="s">
-        <v>72</v>
+        <v>43.840620433565903</v>
+      </c>
+      <c r="F95">
+        <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>73</v>
+        <v>340</v>
       </c>
       <c r="H95" t="s">
+        <v>341</v>
+      </c>
+      <c r="I95" t="s">
         <v>20</v>
       </c>
-      <c r="I95" t="s">
-        <v>72</v>
-      </c>
       <c r="J95" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K95" t="s">
-        <v>74</v>
+        <v>342</v>
       </c>
       <c r="L95">
-        <v>0</v>
+        <v>0.43240000000000001</v>
       </c>
       <c r="M95">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="N95">
-        <v>11.7714186130898</v>
+        <v>1.30630744975669</v>
       </c>
       <c r="O95">
-        <v>0.93255722263173702</v>
+        <v>0</v>
       </c>
       <c r="P95">
-        <v>0.93255722263173702</v>
+        <v>0</v>
       </c>
       <c r="Q95">
         <v>2</v>
@@ -7283,29 +7286,29 @@
       <c r="A96" t="s">
         <v>410</v>
       </c>
-      <c r="B96">
-        <v>2</v>
+      <c r="B96" t="s">
+        <v>340</v>
       </c>
       <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96">
         <v>263</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>11.3137084989848</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>8</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>340</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>411</v>
       </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
         <v>31</v>
-      </c>
-      <c r="I96" t="s">
-        <v>340</v>
       </c>
       <c r="J96" t="s">
         <v>26</v>
@@ -7334,52 +7337,52 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>413</v>
-      </c>
-      <c r="B97">
-        <v>2</v>
+        <v>335</v>
+      </c>
+      <c r="B97" t="s">
+        <v>336</v>
       </c>
       <c r="C97">
-        <v>227.5</v>
+        <v>2</v>
       </c>
       <c r="D97">
-        <v>23.3345237791561</v>
+        <v>185</v>
       </c>
       <c r="E97">
-        <v>16.5</v>
-      </c>
-      <c r="F97" t="s">
-        <v>414</v>
+        <v>16.9705627484771</v>
+      </c>
+      <c r="F97">
+        <v>12</v>
       </c>
       <c r="G97" t="s">
-        <v>415</v>
+        <v>336</v>
       </c>
       <c r="H97" t="s">
-        <v>31</v>
+        <v>337</v>
       </c>
       <c r="I97" t="s">
-        <v>414</v>
+        <v>20</v>
       </c>
       <c r="J97" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="K97" t="s">
-        <v>416</v>
+        <v>338</v>
       </c>
       <c r="L97">
-        <v>0.74419999999999997</v>
+        <v>0.99680000000000002</v>
       </c>
       <c r="M97">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="N97">
-        <v>2.1075420620569898</v>
+        <v>2.0942818565935699</v>
       </c>
       <c r="O97">
-        <v>0.115046087635941</v>
+        <v>0</v>
       </c>
       <c r="P97">
-        <v>0.115046087635941</v>
+        <v>0</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -7387,52 +7390,52 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>417</v>
-      </c>
-      <c r="B98">
-        <v>2</v>
+        <v>389</v>
+      </c>
+      <c r="B98" t="s">
+        <v>392</v>
       </c>
       <c r="C98">
-        <v>270.5</v>
+        <v>2</v>
       </c>
       <c r="D98">
-        <v>12.0208152801713</v>
+        <v>334</v>
       </c>
       <c r="E98">
-        <v>8.5</v>
-      </c>
-      <c r="F98" t="s">
-        <v>137</v>
+        <v>26.870057685088799</v>
+      </c>
+      <c r="F98">
+        <v>19</v>
       </c>
       <c r="G98" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
       <c r="H98" t="s">
+        <v>391</v>
+      </c>
+      <c r="I98" t="s">
         <v>31</v>
       </c>
-      <c r="I98" t="s">
-        <v>138</v>
-      </c>
       <c r="J98" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="K98" t="s">
-        <v>419</v>
+        <v>393</v>
       </c>
       <c r="L98">
-        <v>0.17829999999999999</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="M98">
-        <v>0.31</v>
+        <v>0.01</v>
       </c>
       <c r="N98">
-        <v>1.61291566390184</v>
+        <v>2.2306115895990302</v>
       </c>
       <c r="O98">
-        <v>1.7106133192414101E-2</v>
+        <v>0.64621514349852205</v>
       </c>
       <c r="P98">
-        <v>1.7106133192414101E-2</v>
+        <v>0.64621514349852205</v>
       </c>
       <c r="Q98">
         <v>2</v>
@@ -7440,158 +7443,158 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>420</v>
-      </c>
-      <c r="B99">
-        <v>3</v>
+        <v>381</v>
+      </c>
+      <c r="B99" t="s">
+        <v>382</v>
       </c>
       <c r="C99">
-        <v>900.66666666666697</v>
+        <v>2</v>
       </c>
       <c r="D99">
-        <v>228.02265969270101</v>
+        <v>239.5</v>
       </c>
       <c r="E99">
-        <v>131.64894395491501</v>
-      </c>
-      <c r="F99" t="s">
-        <v>386</v>
+        <v>51.618795026618002</v>
+      </c>
+      <c r="F99">
+        <v>36.5</v>
       </c>
       <c r="G99" t="s">
-        <v>204</v>
+        <v>382</v>
       </c>
       <c r="H99" t="s">
-        <v>20</v>
+        <v>383</v>
       </c>
       <c r="I99" t="s">
-        <v>386</v>
+        <v>31</v>
       </c>
       <c r="J99" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K99" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>0.55020000000000002</v>
       </c>
       <c r="M99">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="N99">
-        <v>7.5443811060995403</v>
+        <v>1.12503812470043</v>
       </c>
       <c r="O99">
-        <v>0.96076444740057798</v>
+        <v>0</v>
       </c>
       <c r="P99">
-        <v>0.97398639204072202</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>422</v>
-      </c>
-      <c r="B100">
-        <v>2</v>
+        <v>241</v>
+      </c>
+      <c r="B100" t="s">
+        <v>243</v>
       </c>
       <c r="C100">
-        <v>371</v>
+        <v>3</v>
       </c>
       <c r="D100">
-        <v>7.0710678118654799</v>
+        <v>225</v>
       </c>
       <c r="E100">
-        <v>5</v>
-      </c>
-      <c r="F100" t="s">
-        <v>423</v>
+        <v>24.576411454889001</v>
+      </c>
+      <c r="F100">
+        <v>14.1891977691952</v>
       </c>
       <c r="G100" t="s">
-        <v>424</v>
+        <v>242</v>
       </c>
       <c r="H100" t="s">
+        <v>226</v>
+      </c>
+      <c r="I100" t="s">
         <v>20</v>
       </c>
-      <c r="I100" t="s">
-        <v>423</v>
-      </c>
       <c r="J100" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="K100" t="s">
-        <v>426</v>
+        <v>244</v>
       </c>
       <c r="L100">
-        <v>0</v>
+        <v>0.81799999999999995</v>
       </c>
       <c r="M100">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="N100">
-        <v>6.2412361519838004</v>
+        <v>1.4112843428116399</v>
       </c>
       <c r="O100">
-        <v>0.68156027779292505</v>
+        <v>4.1502924219960699E-2</v>
       </c>
       <c r="P100">
-        <v>0.68156027779292505</v>
+        <v>0.27865458317812403</v>
       </c>
       <c r="Q100">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>427</v>
-      </c>
-      <c r="B101">
-        <v>2</v>
+        <v>248</v>
+      </c>
+      <c r="B101" t="s">
+        <v>251</v>
       </c>
       <c r="C101">
-        <v>248.5</v>
+        <v>2</v>
       </c>
       <c r="D101">
-        <v>19.091883092036799</v>
+        <v>195</v>
       </c>
       <c r="E101">
-        <v>13.5</v>
-      </c>
-      <c r="F101" t="s">
-        <v>428</v>
+        <v>18.384776310850199</v>
+      </c>
+      <c r="F101">
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>429</v>
+        <v>249</v>
       </c>
       <c r="H101" t="s">
+        <v>250</v>
+      </c>
+      <c r="I101" t="s">
         <v>20</v>
       </c>
-      <c r="I101" t="s">
-        <v>428</v>
-      </c>
       <c r="J101" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="K101" t="s">
-        <v>430</v>
+        <v>252</v>
       </c>
       <c r="L101">
-        <v>0.4239</v>
+        <v>0.97740000000000005</v>
       </c>
       <c r="M101">
-        <v>0.61</v>
+        <v>1</v>
       </c>
       <c r="N101">
-        <v>1.46733074170574</v>
+        <v>2.6006641029635902</v>
       </c>
       <c r="O101">
-        <v>7.2404891033761798E-2</v>
+        <v>0.26904970041757098</v>
       </c>
       <c r="P101">
-        <v>7.2404891033761798E-2</v>
+        <v>0.26904970041757098</v>
       </c>
       <c r="Q101">
         <v>2</v>
@@ -7599,196 +7602,196 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>431</v>
-      </c>
-      <c r="B102">
-        <v>3</v>
+        <v>67</v>
+      </c>
+      <c r="B102" t="s">
+        <v>68</v>
       </c>
       <c r="C102">
-        <v>1037.3333333333301</v>
+        <v>2</v>
       </c>
       <c r="D102">
-        <v>298.93867821567198</v>
+        <v>245.5</v>
       </c>
       <c r="E102">
-        <v>172.59232633900899</v>
-      </c>
-      <c r="F102" t="s">
-        <v>292</v>
+        <v>92.630988335437706</v>
+      </c>
+      <c r="F102">
+        <v>65.5</v>
       </c>
       <c r="G102" t="s">
-        <v>432</v>
+        <v>68</v>
       </c>
       <c r="H102" t="s">
+        <v>69</v>
+      </c>
+      <c r="I102" t="s">
         <v>20</v>
       </c>
-      <c r="I102" t="s">
-        <v>294</v>
-      </c>
       <c r="J102" t="s">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="K102" t="s">
-        <v>433</v>
+        <v>70</v>
       </c>
       <c r="L102">
-        <v>0</v>
+        <v>0.44719999999999999</v>
       </c>
       <c r="M102">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="N102">
-        <v>5.73427001561212</v>
+        <v>1.4785038212095201</v>
       </c>
       <c r="O102">
-        <v>0.88431390344654304</v>
+        <v>0.117274464305705</v>
       </c>
       <c r="P102">
-        <v>0.94413338138611003</v>
+        <v>0.117274464305705</v>
       </c>
       <c r="Q102">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>434</v>
-      </c>
-      <c r="B103">
-        <v>2</v>
+        <v>266</v>
+      </c>
+      <c r="B103" t="s">
+        <v>269</v>
       </c>
       <c r="C103">
-        <v>249</v>
+        <v>4</v>
       </c>
       <c r="D103">
-        <v>29.698484809835001</v>
+        <v>445.25</v>
       </c>
       <c r="E103">
-        <v>21</v>
-      </c>
-      <c r="F103" t="s">
-        <v>229</v>
+        <v>165.40531027348101</v>
+      </c>
+      <c r="F103">
+        <v>82.702655136740702</v>
       </c>
       <c r="G103" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="H103" t="s">
+        <v>268</v>
+      </c>
+      <c r="I103" t="s">
         <v>31</v>
       </c>
-      <c r="I103" t="s">
-        <v>229</v>
-      </c>
       <c r="J103" t="s">
-        <v>21</v>
+        <v>270</v>
       </c>
       <c r="K103" t="s">
-        <v>435</v>
+        <v>271</v>
       </c>
       <c r="L103">
-        <v>0.41089999999999999</v>
+        <v>0</v>
       </c>
       <c r="M103">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="N103">
-        <v>1.99931636740148</v>
+        <v>3.6843144565211601</v>
       </c>
       <c r="O103">
-        <v>0</v>
+        <v>0.53684961084295602</v>
       </c>
       <c r="P103">
-        <v>0</v>
+        <v>0.904835542639566</v>
       </c>
       <c r="Q103">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>436</v>
-      </c>
-      <c r="B104">
-        <v>2</v>
+        <v>438</v>
+      </c>
+      <c r="B104" t="s">
+        <v>269</v>
       </c>
       <c r="C104">
-        <v>251.5</v>
+        <v>3</v>
       </c>
       <c r="D104">
-        <v>20.506096654409902</v>
+        <v>729</v>
       </c>
       <c r="E104">
-        <v>14.5</v>
-      </c>
-      <c r="F104" t="s">
-        <v>229</v>
+        <v>112.254175868874</v>
+      </c>
+      <c r="F104">
+        <v>64.809978655553806</v>
       </c>
       <c r="G104" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="H104" t="s">
-        <v>20</v>
+        <v>439</v>
       </c>
       <c r="I104" t="s">
-        <v>229</v>
+        <v>31</v>
       </c>
       <c r="J104" t="s">
-        <v>21</v>
+        <v>270</v>
       </c>
       <c r="K104" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="L104">
-        <v>0.35659999999999997</v>
+        <v>0</v>
       </c>
       <c r="M104">
-        <v>0.56000000000000005</v>
+        <v>0</v>
       </c>
       <c r="N104">
-        <v>1.8735278165753999</v>
+        <v>6.8567453500950597</v>
       </c>
       <c r="O104">
-        <v>0</v>
+        <v>0.88982206990032398</v>
       </c>
       <c r="P104">
-        <v>0</v>
+        <v>0.92065162763733699</v>
       </c>
       <c r="Q104">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>438</v>
-      </c>
-      <c r="B105">
-        <v>3</v>
+        <v>33</v>
+      </c>
+      <c r="B105" t="s">
+        <v>34</v>
       </c>
       <c r="C105">
-        <v>729</v>
+        <v>3</v>
       </c>
       <c r="D105">
-        <v>112.254175868874</v>
+        <v>552.33333333333303</v>
       </c>
       <c r="E105">
-        <v>64.809978655553806</v>
-      </c>
-      <c r="F105" t="s">
-        <v>267</v>
+        <v>82.561088494116504</v>
+      </c>
+      <c r="F105">
+        <v>47.6666666666667</v>
       </c>
       <c r="G105" t="s">
-        <v>439</v>
+        <v>34</v>
       </c>
       <c r="H105" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I105" t="s">
-        <v>269</v>
+        <v>20</v>
       </c>
       <c r="J105" t="s">
-        <v>270</v>
+        <v>36</v>
       </c>
       <c r="K105" t="s">
-        <v>440</v>
+        <v>37</v>
       </c>
       <c r="L105">
         <v>0</v>
@@ -7797,13 +7800,13 @@
         <v>0</v>
       </c>
       <c r="N105">
-        <v>6.8567453500950597</v>
+        <v>6.2847108581162798</v>
       </c>
       <c r="O105">
-        <v>0.88982206990032398</v>
+        <v>0.94624782795815399</v>
       </c>
       <c r="P105">
-        <v>0.92065162763733699</v>
+        <v>0.97145072567202995</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -7811,90 +7814,90 @@
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>441</v>
-      </c>
-      <c r="B106">
-        <v>2</v>
+        <v>238</v>
+      </c>
+      <c r="B106" t="s">
+        <v>34</v>
       </c>
       <c r="C106">
-        <v>236</v>
+        <v>3</v>
       </c>
       <c r="D106">
-        <v>28.284271247461898</v>
+        <v>456.33333333333297</v>
       </c>
       <c r="E106">
+        <v>72.147996045166295</v>
+      </c>
+      <c r="F106">
+        <v>41.6546649381688</v>
+      </c>
+      <c r="G106" t="s">
+        <v>34</v>
+      </c>
+      <c r="H106" t="s">
+        <v>239</v>
+      </c>
+      <c r="I106" t="s">
         <v>20</v>
       </c>
-      <c r="F106" t="s">
-        <v>211</v>
-      </c>
-      <c r="G106" t="s">
-        <v>442</v>
-      </c>
-      <c r="H106" t="s">
-        <v>31</v>
-      </c>
-      <c r="I106" t="s">
-        <v>211</v>
-      </c>
       <c r="J106" t="s">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="K106" t="s">
-        <v>443</v>
+        <v>240</v>
       </c>
       <c r="L106">
-        <v>0.6109</v>
+        <v>0</v>
       </c>
       <c r="M106">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="N106">
-        <v>2.26215923018666</v>
+        <v>5.1081622933052202</v>
       </c>
       <c r="O106">
-        <v>0</v>
+        <v>0.91916298558307097</v>
       </c>
       <c r="P106">
-        <v>0</v>
+        <v>0.96050064933318002</v>
       </c>
       <c r="Q106">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>444</v>
-      </c>
-      <c r="B107">
-        <v>3</v>
+        <v>353</v>
+      </c>
+      <c r="B107" t="s">
+        <v>354</v>
       </c>
       <c r="C107">
-        <v>765.33333333333303</v>
+        <v>3</v>
       </c>
       <c r="D107">
-        <v>65.071755265501594</v>
+        <v>819.66666666666697</v>
       </c>
       <c r="E107">
-        <v>37.569195419178797</v>
-      </c>
-      <c r="F107" t="s">
-        <v>198</v>
+        <v>186.05733883223601</v>
+      </c>
+      <c r="F107">
+        <v>107.420254659497</v>
       </c>
       <c r="G107" t="s">
-        <v>179</v>
+        <v>354</v>
       </c>
       <c r="H107" t="s">
-        <v>31</v>
+        <v>355</v>
       </c>
       <c r="I107" t="s">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="J107" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="K107" t="s">
-        <v>445</v>
+        <v>356</v>
       </c>
       <c r="L107">
         <v>0</v>
@@ -7903,13 +7906,13 @@
         <v>0</v>
       </c>
       <c r="N107">
-        <v>10.7754055258865</v>
+        <v>13.5480609989856</v>
       </c>
       <c r="O107">
-        <v>0.87941960519777096</v>
+        <v>0.86148282159799405</v>
       </c>
       <c r="P107">
-        <v>0.92145553563215898</v>
+        <v>0.93748347355412798</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -7917,143 +7920,143 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>446</v>
-      </c>
-      <c r="B108">
-        <v>2</v>
+        <v>53</v>
+      </c>
+      <c r="B108" t="s">
+        <v>56</v>
       </c>
       <c r="C108">
-        <v>2341.5</v>
+        <v>3</v>
       </c>
       <c r="D108">
-        <v>327.39043968937102</v>
+        <v>312.66666666666703</v>
       </c>
       <c r="E108">
-        <v>231.5</v>
-      </c>
-      <c r="F108" t="s">
-        <v>203</v>
+        <v>51.520222566807</v>
+      </c>
+      <c r="F108">
+        <v>29.7452143676555</v>
       </c>
       <c r="G108" t="s">
-        <v>447</v>
+        <v>54</v>
       </c>
       <c r="H108" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="I108" t="s">
-        <v>203</v>
+        <v>20</v>
       </c>
       <c r="J108" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="K108" t="s">
-        <v>448</v>
+        <v>57</v>
       </c>
       <c r="L108">
-        <v>0</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="M108">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N108">
-        <v>26.606504114328501</v>
+        <v>2.4623480406503502</v>
       </c>
       <c r="O108">
-        <v>0.98421704288609901</v>
+        <v>6.9894979619948699E-2</v>
       </c>
       <c r="P108">
-        <v>0.98421704288609901</v>
+        <v>0.63603003828336602</v>
       </c>
       <c r="Q108">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>449</v>
-      </c>
-      <c r="B109">
-        <v>2</v>
+        <v>116</v>
+      </c>
+      <c r="B109" t="s">
+        <v>56</v>
       </c>
       <c r="C109">
-        <v>2429</v>
+        <v>3</v>
       </c>
       <c r="D109">
-        <v>282.84271247461902</v>
+        <v>276.33333333333297</v>
       </c>
       <c r="E109">
-        <v>200</v>
-      </c>
-      <c r="F109" t="s">
-        <v>203</v>
+        <v>48.013886880082197</v>
+      </c>
+      <c r="F109">
+        <v>27.720830515055699</v>
       </c>
       <c r="G109" t="s">
-        <v>447</v>
+        <v>54</v>
       </c>
       <c r="H109" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="I109" t="s">
-        <v>203</v>
+        <v>31</v>
       </c>
       <c r="J109" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="K109" t="s">
-        <v>450</v>
+        <v>118</v>
       </c>
       <c r="L109">
-        <v>0</v>
+        <v>0.10440000000000001</v>
       </c>
       <c r="M109">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N109">
-        <v>32.423182984675698</v>
+        <v>2.07600164507536</v>
       </c>
       <c r="O109">
-        <v>0.97093087033326397</v>
+        <v>0.123397352733139</v>
       </c>
       <c r="P109">
-        <v>0.97093087033326397</v>
+        <v>0.23197333844468199</v>
       </c>
       <c r="Q109">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>451</v>
-      </c>
-      <c r="B110">
-        <v>3</v>
+        <v>322</v>
+      </c>
+      <c r="B110" t="s">
+        <v>325</v>
       </c>
       <c r="C110">
-        <v>1343.6666666666699</v>
+        <v>3</v>
       </c>
       <c r="D110">
-        <v>288.390938368967</v>
+        <v>1901.3333333333301</v>
       </c>
       <c r="E110">
-        <v>166.502585899172</v>
-      </c>
-      <c r="F110" t="s">
-        <v>150</v>
+        <v>694.51013911485404</v>
+      </c>
+      <c r="F110">
+        <v>400.97561577288502</v>
       </c>
       <c r="G110" t="s">
-        <v>452</v>
+        <v>323</v>
       </c>
       <c r="H110" t="s">
+        <v>324</v>
+      </c>
+      <c r="I110" t="s">
         <v>20</v>
       </c>
-      <c r="I110" t="s">
-        <v>152</v>
-      </c>
       <c r="J110" t="s">
-        <v>153</v>
+        <v>326</v>
       </c>
       <c r="K110" t="s">
-        <v>453</v>
+        <v>327</v>
       </c>
       <c r="L110">
         <v>0</v>
@@ -8062,13 +8065,13 @@
         <v>0</v>
       </c>
       <c r="N110">
-        <v>8.9613911997829803</v>
+        <v>7.08961637145923</v>
       </c>
       <c r="O110">
-        <v>0.95253650626931197</v>
+        <v>0.97722884903153795</v>
       </c>
       <c r="P110">
-        <v>0.96252940647142005</v>
+        <v>0.98676176955877704</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -8076,52 +8079,52 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>454</v>
-      </c>
-      <c r="B111">
-        <v>3</v>
+        <v>224</v>
+      </c>
+      <c r="B111" t="s">
+        <v>225</v>
       </c>
       <c r="C111">
-        <v>854</v>
+        <v>3</v>
       </c>
       <c r="D111">
-        <v>412.18563778957702</v>
+        <v>284</v>
       </c>
       <c r="E111">
-        <v>237.97548893390999</v>
-      </c>
-      <c r="F111" t="s">
-        <v>132</v>
+        <v>25.0599281722833</v>
+      </c>
+      <c r="F111">
+        <v>14.468356276140501</v>
       </c>
       <c r="G111" t="s">
-        <v>455</v>
+        <v>225</v>
       </c>
       <c r="H111" t="s">
+        <v>226</v>
+      </c>
+      <c r="I111" t="s">
         <v>20</v>
       </c>
-      <c r="I111" t="s">
-        <v>134</v>
-      </c>
       <c r="J111" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="K111" t="s">
-        <v>456</v>
+        <v>227</v>
       </c>
       <c r="L111">
-        <v>0</v>
+        <v>6.1699999999999998E-2</v>
       </c>
       <c r="M111">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="N111">
-        <v>3.9372976658990102</v>
+        <v>2.7013930965175601</v>
       </c>
       <c r="O111">
-        <v>0.83960139812455703</v>
+        <v>0.27597417168028499</v>
       </c>
       <c r="P111">
-        <v>0.91849449093278301</v>
+        <v>0.46444046479147499</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -8129,164 +8132,167 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>457</v>
-      </c>
-      <c r="B112">
-        <v>3</v>
+        <v>401</v>
+      </c>
+      <c r="B112" t="s">
+        <v>402</v>
       </c>
       <c r="C112">
-        <v>257.33333333333297</v>
+        <v>2</v>
       </c>
       <c r="D112">
-        <v>7.0945988845975902</v>
+        <v>259.5</v>
       </c>
       <c r="E112">
-        <v>4.0960685758148401</v>
-      </c>
-      <c r="F112" t="s">
-        <v>156</v>
+        <v>21.920310216783001</v>
+      </c>
+      <c r="F112">
+        <v>15.5</v>
       </c>
       <c r="G112" t="s">
-        <v>264</v>
+        <v>402</v>
       </c>
       <c r="H112" t="s">
-        <v>20</v>
+        <v>403</v>
       </c>
       <c r="I112" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="J112" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="K112" t="s">
-        <v>458</v>
+        <v>404</v>
       </c>
       <c r="L112">
-        <v>0.28970000000000001</v>
+        <v>0.26150000000000001</v>
       </c>
       <c r="M112">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="N112">
-        <v>0.97246909599720499</v>
+        <v>2.5017197028046798</v>
       </c>
       <c r="O112">
-        <v>6.0844939513061802E-2</v>
+        <v>9.9931200628818398E-2</v>
       </c>
       <c r="P112">
-        <v>0.37808936523548198</v>
+        <v>9.9931200628818398E-2</v>
       </c>
       <c r="Q112">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>459</v>
-      </c>
-      <c r="B113">
-        <v>2</v>
+        <v>71</v>
+      </c>
+      <c r="B113" t="s">
+        <v>72</v>
       </c>
       <c r="C113">
-        <v>228</v>
+        <v>3</v>
       </c>
       <c r="D113">
-        <v>1.4142135623731</v>
+        <v>541.33333333333303</v>
       </c>
       <c r="E113">
-        <v>1</v>
-      </c>
-      <c r="F113" t="s">
-        <v>207</v>
+        <v>62.147673595504202</v>
+      </c>
+      <c r="F113">
+        <v>35.880976079873399</v>
       </c>
       <c r="G113" t="s">
-        <v>460</v>
+        <v>72</v>
       </c>
       <c r="H113" t="s">
+        <v>73</v>
+      </c>
+      <c r="I113" t="s">
         <v>20</v>
       </c>
-      <c r="I113" t="s">
-        <v>208</v>
-      </c>
       <c r="J113" t="s">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="K113" t="s">
-        <v>461</v>
+        <v>74</v>
       </c>
       <c r="L113">
-        <v>0.74419999999999997</v>
+        <v>0</v>
       </c>
       <c r="M113">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="N113">
-        <v>1.9806384288394601</v>
+        <v>12.950579683072499</v>
       </c>
       <c r="O113">
-        <v>0</v>
+        <v>0.89660198775033995</v>
       </c>
       <c r="P113">
-        <v>0</v>
+        <v>0.94681045213180304</v>
       </c>
       <c r="Q113">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>462</v>
-      </c>
-      <c r="B114">
-        <v>2</v>
+        <v>409</v>
+      </c>
+      <c r="B114" t="s">
+        <v>72</v>
       </c>
       <c r="C114">
-        <v>250.5</v>
+        <v>2</v>
       </c>
       <c r="D114">
-        <v>4.94974746830583</v>
+        <v>668</v>
       </c>
       <c r="E114">
-        <v>3.5</v>
-      </c>
-      <c r="F114" t="s">
-        <v>76</v>
+        <v>188.090403795622</v>
+      </c>
+      <c r="F114">
+        <v>133</v>
       </c>
       <c r="G114" t="s">
-        <v>463</v>
+        <v>72</v>
       </c>
       <c r="H114" t="s">
+        <v>73</v>
+      </c>
+      <c r="I114" t="s">
         <v>20</v>
       </c>
-      <c r="I114" t="s">
-        <v>78</v>
-      </c>
       <c r="J114" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="K114" t="s">
-        <v>464</v>
+        <v>74</v>
       </c>
       <c r="L114">
-        <v>0.39350000000000002</v>
+        <v>0</v>
       </c>
       <c r="M114">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="N114">
-        <v>1.7610487318232</v>
+        <v>11.7714186130898</v>
       </c>
       <c r="O114">
-        <v>0.364576969366533</v>
+        <v>0.93255722263173702</v>
       </c>
       <c r="P114">
-        <v>0.364576969366533</v>
+        <v>0.93255722263173702</v>
       </c>
       <c r="Q114">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:R114">
+    <sortCondition ref="B2:B114"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>